--- a/raw_data/USDC-USD_4h_process.xlsx
+++ b/raw_data/USDC-USD_4h_process.xlsx
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>1.000301837921143</v>
+        <v>1.000067234039307</v>
       </c>
       <c r="C2">
-        <v>1.000599265098572</v>
+        <v>1.000727295875549</v>
       </c>
       <c r="D2">
-        <v>0.9998968243598938</v>
+        <v>0.9998429417610168</v>
       </c>
       <c r="E2">
-        <v>1.000077724456787</v>
+        <v>1.000011444091797</v>
       </c>
       <c r="F2">
-        <v>279899136</v>
+        <v>447545344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>1.000154614448547</v>
+        <v>1.000022411346436</v>
       </c>
       <c r="C3">
-        <v>1.000473737716675</v>
+        <v>1.000524282455444</v>
       </c>
       <c r="D3">
-        <v>0.999782383441925</v>
+        <v>0.9998939037322998</v>
       </c>
       <c r="E3">
-        <v>1.00018584728241</v>
+        <v>1.000123620033264</v>
       </c>
       <c r="F3">
-        <v>628376576</v>
+        <v>4818944</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>1.000116348266602</v>
+        <v>0.9999160766601562</v>
       </c>
       <c r="C4">
-        <v>1.000320076942444</v>
+        <v>1.000394940376282</v>
       </c>
       <c r="D4">
-        <v>0.999684512615204</v>
+        <v>0.9999046325683594</v>
       </c>
       <c r="E4">
-        <v>0.9999260306358336</v>
+        <v>1.000117897987366</v>
       </c>
       <c r="F4">
-        <v>558029312</v>
+        <v>72862720</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.9999394416809082</v>
+        <v>1.000132203102112</v>
       </c>
       <c r="C5">
-        <v>1.00067412853241</v>
+        <v>1.000340104103088</v>
       </c>
       <c r="D5">
-        <v>0.9998236894607544</v>
+        <v>0.9999008774757384</v>
       </c>
       <c r="E5">
-        <v>1.000481247901917</v>
+        <v>1.000026345252991</v>
       </c>
       <c r="F5">
-        <v>75751936</v>
+        <v>33476608</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1.000401258468628</v>
+        <v>1.000027298927307</v>
       </c>
       <c r="C6">
-        <v>1.000950336456299</v>
+        <v>1.000353217124939</v>
       </c>
       <c r="D6">
-        <v>0.9998772740364076</v>
+        <v>0.9999104142189026</v>
       </c>
       <c r="E6">
-        <v>1.000099658966064</v>
+        <v>0.9999601244926452</v>
       </c>
       <c r="F6">
-        <v>152173056</v>
+        <v>87659520</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>1.000107049942017</v>
+        <v>0.9999714493751526</v>
       </c>
       <c r="C7">
-        <v>1.000982165336609</v>
+        <v>1.000595211982727</v>
       </c>
       <c r="D7">
-        <v>0.9999130964279176</v>
+        <v>0.999903917312622</v>
       </c>
       <c r="E7">
-        <v>1.00058913230896</v>
+        <v>1.000324726104736</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1.000168323516846</v>
+        <v>1.000156402587891</v>
       </c>
       <c r="C8">
-        <v>1.000940442085266</v>
+        <v>1.000654935836792</v>
       </c>
       <c r="D8">
-        <v>1.000009179115295</v>
+        <v>0.9998598098754884</v>
       </c>
       <c r="E8">
-        <v>1.000553369522095</v>
+        <v>1.000063300132752</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>71194112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>1.000660061836243</v>
+        <v>1.000082969665527</v>
       </c>
       <c r="C9">
-        <v>1.00098443031311</v>
+        <v>1.00042712688446</v>
       </c>
       <c r="D9">
-        <v>1.000085592269898</v>
+        <v>0.9998550415039062</v>
       </c>
       <c r="E9">
-        <v>1.000206232070923</v>
+        <v>1.000108361244202</v>
       </c>
       <c r="F9">
-        <v>180918784</v>
+        <v>304631296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1.000181555747986</v>
+        <v>0.9998750686645508</v>
       </c>
       <c r="C10">
-        <v>1.000706553459168</v>
+        <v>1.0004061460495</v>
       </c>
       <c r="D10">
-        <v>0.9999647736549376</v>
+        <v>0.9996708631515504</v>
       </c>
       <c r="E10">
-        <v>1.000367403030396</v>
+        <v>1.000076651573181</v>
       </c>
       <c r="F10">
-        <v>28251648</v>
+        <v>595168256</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>1.000353813171387</v>
+        <v>1.000046372413635</v>
       </c>
       <c r="C11">
-        <v>1.000896334648132</v>
+        <v>1.000421643257141</v>
       </c>
       <c r="D11">
-        <v>1.000075936317444</v>
+        <v>0.9998825788497924</v>
       </c>
       <c r="E11">
-        <v>1.00045907497406</v>
+        <v>1.000324487686157</v>
       </c>
       <c r="F11">
-        <v>32190976</v>
+        <v>174034432</v>
       </c>
       <c r="L11">
-        <v>57.81082504475957</v>
+        <v>65.1921721937796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>1.000389099121094</v>
+        <v>1.000242233276367</v>
       </c>
       <c r="C12">
-        <v>1.000677227973938</v>
+        <v>1.000471830368042</v>
       </c>
       <c r="D12">
-        <v>1.000024557113648</v>
+        <v>0.9998000264167786</v>
       </c>
       <c r="E12">
-        <v>1.000178694725037</v>
+        <v>1.000312328338623</v>
       </c>
       <c r="F12">
-        <v>90361856</v>
+        <v>133078016</v>
       </c>
       <c r="L12">
-        <v>47.66341650756689</v>
+        <v>64.16081712024641</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1.000245213508606</v>
+        <v>1.000165343284607</v>
       </c>
       <c r="C13">
-        <v>1.000841021537781</v>
+        <v>1.000583052635193</v>
       </c>
       <c r="D13">
-        <v>0.9999537467956544</v>
+        <v>0.9997751712799072</v>
       </c>
       <c r="E13">
-        <v>1.000379681587219</v>
+        <v>1.000128865242004</v>
       </c>
       <c r="F13">
-        <v>537720832</v>
+        <v>61267968</v>
       </c>
       <c r="L13">
-        <v>54.15316823423371</v>
+        <v>50.57860336932666</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>1.000395655632019</v>
+        <v>1.000092029571533</v>
       </c>
       <c r="C14">
-        <v>1.001173734664917</v>
+        <v>1.000743627548218</v>
       </c>
       <c r="D14">
-        <v>1.000059366226196</v>
+        <v>1.000015735626221</v>
       </c>
       <c r="E14">
-        <v>1.000376343727112</v>
+        <v>1.000141978263855</v>
       </c>
       <c r="F14">
-        <v>21463876608</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>54.02799986685582</v>
+        <v>51.40576805499049</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>1.000381946563721</v>
+        <v>1.000232934951782</v>
       </c>
       <c r="C15">
-        <v>1.000752687454224</v>
+        <v>1.000555753707886</v>
       </c>
       <c r="D15">
-        <v>1.000010013580322</v>
+        <v>0.9998778700828552</v>
       </c>
       <c r="E15">
-        <v>1.000285506248474</v>
+        <v>0.9999758005142212</v>
       </c>
       <c r="F15">
-        <v>37026120704</v>
+        <v>88742400</v>
       </c>
       <c r="L15">
-        <v>50.4573703340327</v>
+        <v>41.50258642860506</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>1.000331282615662</v>
+        <v>1.000053882598877</v>
       </c>
       <c r="C16">
-        <v>1.000837683677673</v>
+        <v>1.000480890274048</v>
       </c>
       <c r="D16">
-        <v>1.000056624412537</v>
+        <v>0.99983149766922</v>
       </c>
       <c r="E16">
-        <v>1.000494360923767</v>
+        <v>0.9999891519546508</v>
       </c>
       <c r="F16">
-        <v>19506664448</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>57.69006190357683</v>
+        <v>42.50376165659525</v>
       </c>
       <c r="M16">
-        <v>56.99786339962063</v>
+        <v>45.16084807551343</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1335,25 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>1.000206112861633</v>
+        <v>1.000156164169312</v>
       </c>
       <c r="C17">
-        <v>1.001157402992248</v>
+        <v>1.00049614906311</v>
       </c>
       <c r="D17">
-        <v>0.9998801946640016</v>
+        <v>0.999860405921936</v>
       </c>
       <c r="E17">
-        <v>1.000200033187866</v>
+        <v>1.000078678131104</v>
       </c>
       <c r="F17">
-        <v>35448320</v>
+        <v>9122304</v>
       </c>
       <c r="L17">
-        <v>46.84719769928776</v>
+        <v>49.07810558322289</v>
       </c>
       <c r="M17">
-        <v>48.79427954636992</v>
+        <v>49.97426739660044</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1361,25 +1361,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>1.000296711921692</v>
+        <v>1.000055074691772</v>
       </c>
       <c r="C18">
-        <v>1.000959396362305</v>
+        <v>1.000204563140869</v>
       </c>
       <c r="D18">
-        <v>0.9999116659164428</v>
+        <v>0.9998043775558472</v>
       </c>
       <c r="E18">
-        <v>0.9999566674232484</v>
+        <v>0.9999164342880248</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>39.87561716902341</v>
+        <v>39.79987075687222</v>
       </c>
       <c r="M18">
-        <v>43.251142600355</v>
+        <v>42.66552101258218</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1387,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>1.000036597251892</v>
+        <v>0.999960482120514</v>
       </c>
       <c r="C19">
-        <v>1.000865697860718</v>
+        <v>1.00022292137146</v>
       </c>
       <c r="D19">
-        <v>0.9998775124549866</v>
+        <v>0.9997842311859132</v>
       </c>
       <c r="E19">
-        <v>1.000043511390686</v>
+        <v>1.000086188316345</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>43.26507923613639</v>
+        <v>50.75761243406865</v>
       </c>
       <c r="M19">
-        <v>45.62498008013473</v>
+        <v>50.77701659424731</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1413,25 +1413,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>1.000144600868225</v>
+        <v>0.999996542930603</v>
       </c>
       <c r="C20">
-        <v>1.000691652297974</v>
+        <v>1.000233769416809</v>
       </c>
       <c r="D20">
-        <v>0.9998559951782228</v>
+        <v>0.9998356103897096</v>
       </c>
       <c r="E20">
-        <v>1.000192999839783</v>
+        <v>1.000062346458435</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.84918003669555</v>
+        <v>49.3386102134107</v>
       </c>
       <c r="M20">
-        <v>49.53799101154938</v>
+        <v>49.71321267660331</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1439,28 +1439,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>1.000135660171509</v>
+        <v>1.00002646446228</v>
       </c>
       <c r="C21">
-        <v>1.001227259635925</v>
+        <v>1.000251054763794</v>
       </c>
       <c r="D21">
-        <v>0.9999053478240968</v>
+        <v>0.9998180866241456</v>
       </c>
       <c r="E21">
-        <v>1.000034809112549</v>
+        <v>1.000063538551331</v>
       </c>
       <c r="F21">
-        <v>22867712</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.000254416465759</v>
+        <v>1.000094613432884</v>
       </c>
       <c r="L21">
-        <v>43.72569548166343</v>
+        <v>49.41815268890808</v>
       </c>
       <c r="M21">
-        <v>45.78327929187194</v>
+        <v>49.76987747269629</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1468,31 +1468,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>1.000006198883057</v>
+        <v>0.999992847442627</v>
       </c>
       <c r="C22">
-        <v>1.000622034072876</v>
+        <v>1.00054943561554</v>
       </c>
       <c r="D22">
-        <v>0.9998478889465332</v>
+        <v>0.9998562932014464</v>
       </c>
       <c r="E22">
-        <v>0.9999669790267944</v>
+        <v>1.000081658363343</v>
       </c>
       <c r="F22">
-        <v>123617280</v>
+        <v>25542144</v>
       </c>
       <c r="G22">
-        <v>1.000240728968666</v>
+        <v>1.000093996524811</v>
       </c>
       <c r="H22">
-        <v>1.00024887919426</v>
+        <v>1.000098124146461</v>
       </c>
       <c r="L22">
-        <v>41.6199606344412</v>
+        <v>50.74068556568393</v>
       </c>
       <c r="M22">
-        <v>44.23506557624395</v>
+        <v>50.67961100771863</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1500,31 +1500,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>0.9999756217002868</v>
+        <v>0.999938189983368</v>
       </c>
       <c r="C23">
-        <v>1.000442624092102</v>
+        <v>1.000449538230896</v>
       </c>
       <c r="D23">
-        <v>0.9998645782470704</v>
+        <v>0.9998411536216736</v>
       </c>
       <c r="E23">
-        <v>0.9999910593032836</v>
+        <v>0.9999976754188538</v>
       </c>
       <c r="F23">
-        <v>56360704</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1.000218031726358</v>
+        <v>1.000085240060633</v>
       </c>
       <c r="H23">
-        <v>1.000239139795303</v>
+        <v>1.000091826915741</v>
       </c>
       <c r="L23">
-        <v>42.72162492603834</v>
+        <v>44.65299812326452</v>
       </c>
       <c r="M23">
-        <v>44.94682005722782</v>
+        <v>46.47796762508498</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1532,31 +1532,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>1.000023603439331</v>
+        <v>0.9999173283576964</v>
       </c>
       <c r="C24">
-        <v>1.000629186630249</v>
+        <v>1.000585317611694</v>
       </c>
       <c r="D24">
-        <v>0.9998343586921692</v>
+        <v>0.999690055847168</v>
       </c>
       <c r="E24">
-        <v>0.9999810457229614</v>
+        <v>0.999925434589386</v>
       </c>
       <c r="F24">
-        <v>28502272</v>
+        <v>7018752</v>
       </c>
       <c r="G24">
-        <v>1.000196487544231</v>
+        <v>1.000070712290519</v>
       </c>
       <c r="H24">
-        <v>1.00024189054966</v>
+        <v>1.000082203745842</v>
       </c>
       <c r="L24">
-        <v>42.34777617219913</v>
+        <v>40.00798597411369</v>
       </c>
       <c r="M24">
-        <v>44.69137042233596</v>
+        <v>43.16303858417463</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1564,31 +1564,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>1.000048160552978</v>
+        <v>1.000110864639282</v>
       </c>
       <c r="C25">
-        <v>1.000628113746643</v>
+        <v>1.000321507453918</v>
       </c>
       <c r="D25">
-        <v>0.999853014945984</v>
+        <v>0.999665379524231</v>
       </c>
       <c r="E25">
-        <v>1.000131130218506</v>
+        <v>1.000036358833313</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>165747456</v>
       </c>
       <c r="G25">
-        <v>1.000190545969165</v>
+        <v>1.000067589248955</v>
       </c>
       <c r="H25">
-        <v>1.000224384665489</v>
+        <v>1.000082704424858</v>
       </c>
       <c r="L25">
-        <v>49.76071759793494</v>
+        <v>49.14610352934554</v>
       </c>
       <c r="M25">
-        <v>49.33880095494398</v>
+        <v>49.15913336159403</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1596,31 +1596,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>1.000097393989563</v>
+        <v>1.000017762184143</v>
       </c>
       <c r="C26">
-        <v>1.000540137290955</v>
+        <v>1.000394940376282</v>
       </c>
       <c r="D26">
-        <v>0.9998681545257568</v>
+        <v>0.9997103214263916</v>
       </c>
       <c r="E26">
-        <v>1.000130414962769</v>
+        <v>0.99992173910141</v>
       </c>
       <c r="F26">
-        <v>252940288</v>
+        <v>153849088</v>
       </c>
       <c r="G26">
-        <v>1.000185079514038</v>
+        <v>1.000054330144633</v>
       </c>
       <c r="H26">
-        <v>1.000225922465324</v>
+        <v>1.000080785155296</v>
       </c>
       <c r="L26">
-        <v>49.72643767038134</v>
+        <v>41.75286073058499</v>
       </c>
       <c r="M26">
-        <v>49.31753271485599</v>
+        <v>43.99434970798564</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1628,31 +1628,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>1.000128149986267</v>
+        <v>1.000024199485779</v>
       </c>
       <c r="C27">
-        <v>1.00056529045105</v>
+        <v>1.0003741979599</v>
       </c>
       <c r="D27">
-        <v>0.9998934864997864</v>
+        <v>0.9996975660324096</v>
       </c>
       <c r="E27">
-        <v>1.000159859657288</v>
+        <v>1.000047087669373</v>
       </c>
       <c r="F27">
-        <v>71408896</v>
+        <v>222100480</v>
       </c>
       <c r="G27">
-        <v>1.000182786799788</v>
+        <v>1.000053671737791</v>
       </c>
       <c r="H27">
-        <v>1.000204458832741</v>
+        <v>1.000066903233528</v>
       </c>
       <c r="L27">
-        <v>51.28079782099071</v>
+        <v>50.84959466386516</v>
       </c>
       <c r="M27">
-        <v>50.26794008955424</v>
+        <v>50.16115905245185</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1660,31 +1660,31 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>1.00010359287262</v>
+        <v>1.000037789344788</v>
       </c>
       <c r="C28">
-        <v>1.000776648521423</v>
+        <v>1.000345945358276</v>
       </c>
       <c r="D28">
-        <v>0.9998428225517272</v>
+        <v>0.999683439731598</v>
       </c>
       <c r="E28">
-        <v>1.000092625617981</v>
+        <v>0.999864935874939</v>
       </c>
       <c r="F28">
-        <v>36046080</v>
+        <v>527674880</v>
       </c>
       <c r="G28">
-        <v>1.000174590328715</v>
+        <v>1.000036513932077</v>
       </c>
       <c r="H28">
-        <v>1.000181421637535</v>
+        <v>1.000056985020638</v>
       </c>
       <c r="L28">
-        <v>47.5075985262913</v>
+        <v>40.50741608239885</v>
       </c>
       <c r="M28">
-        <v>48.05213492249434</v>
+        <v>42.78806049425346</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1692,31 +1692,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>1.000117540359497</v>
+        <v>0.9998839497566224</v>
       </c>
       <c r="C29">
-        <v>1.00050413608551</v>
+        <v>1.000320792198181</v>
       </c>
       <c r="D29">
-        <v>0.9998804330825806</v>
+        <v>0.9997544288635254</v>
       </c>
       <c r="E29">
-        <v>0.9999954700469972</v>
+        <v>0.9999936819076538</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>516716288</v>
       </c>
       <c r="G29">
-        <v>1.00015830666674</v>
+        <v>1.000032620111675</v>
       </c>
       <c r="H29">
-        <v>1.000170883536339</v>
+        <v>1.00005125105381</v>
       </c>
       <c r="L29">
-        <v>42.43208101908295</v>
+        <v>48.78944829807082</v>
       </c>
       <c r="M29">
-        <v>44.96750902415735</v>
+        <v>48.54504145935337</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1724,31 +1724,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>1.000074148178101</v>
+        <v>0.9999551773071288</v>
       </c>
       <c r="C30">
-        <v>1.000524401664734</v>
+        <v>1.000857830047607</v>
       </c>
       <c r="D30">
-        <v>0.999894082546234</v>
+        <v>0.9997513890266418</v>
       </c>
       <c r="E30">
-        <v>1.000233888626099</v>
+        <v>1.000149607658386</v>
       </c>
       <c r="F30">
-        <v>82337280</v>
+        <v>384482816</v>
       </c>
       <c r="G30">
-        <v>1.000165177753955</v>
+        <v>1.000043255343194</v>
       </c>
       <c r="H30">
-        <v>1.000164207816124</v>
+        <v>1.00005489885807</v>
       </c>
       <c r="L30">
-        <v>55.5441466165541</v>
+        <v>56.95417465495699</v>
       </c>
       <c r="M30">
-        <v>52.94949832768225</v>
+        <v>54.51468016383131</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1756,34 +1756,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>1.00016176700592</v>
+        <v>1.000009059906006</v>
       </c>
       <c r="C31">
-        <v>1.000554203987122</v>
+        <v>1.000532150268555</v>
       </c>
       <c r="D31">
-        <v>0.9999400973320008</v>
+        <v>0.9999254941940308</v>
       </c>
       <c r="E31">
-        <v>1.000249743461609</v>
+        <v>1.000245809555054</v>
       </c>
       <c r="F31">
-        <v>223052800</v>
+        <v>1060303360</v>
       </c>
       <c r="G31">
-        <v>1.00017286554556</v>
+        <v>1.000061669362454</v>
       </c>
       <c r="H31">
-        <v>1.000153741240501</v>
+        <v>1.000050964951515</v>
       </c>
       <c r="I31">
-        <v>1.000200684865316</v>
+        <v>1.000071875254313</v>
       </c>
       <c r="L31">
-        <v>56.28897419570576</v>
+        <v>61.243109229585</v>
       </c>
       <c r="M31">
-        <v>53.43319680891867</v>
+        <v>57.76999099365219</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1791,34 +1791,34 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>1.000195622444153</v>
+        <v>1.000059962272644</v>
       </c>
       <c r="C32">
-        <v>1.00054931640625</v>
+        <v>1.00040078163147</v>
       </c>
       <c r="D32">
-        <v>0.999902367591858</v>
+        <v>0.9994757175445556</v>
       </c>
       <c r="E32">
-        <v>1.00010335445404</v>
+        <v>0.9998973608016968</v>
       </c>
       <c r="F32">
-        <v>240646912</v>
+        <v>1311353856</v>
       </c>
       <c r="G32">
-        <v>1.000166546355421</v>
+        <v>1.000046732220567</v>
       </c>
       <c r="H32">
-        <v>1.000149974226952</v>
+        <v>1.000030216574669</v>
       </c>
       <c r="I32">
-        <v>1.000201539198557</v>
+        <v>1.000068072477976</v>
       </c>
       <c r="L32">
-        <v>47.94505864139055</v>
+        <v>43.55839477606059</v>
       </c>
       <c r="M32">
-        <v>48.47773436415133</v>
+        <v>45.16226211133127</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1826,34 +1826,34 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>1.000025153160095</v>
+        <v>0.9999402761459352</v>
       </c>
       <c r="C33">
-        <v>1.000569343566894</v>
+        <v>1.000234603881836</v>
       </c>
       <c r="D33">
-        <v>0.9998323321342468</v>
+        <v>0.9996071457862854</v>
       </c>
       <c r="E33">
-        <v>1.000183701515198</v>
+        <v>1.000056147575378</v>
       </c>
       <c r="F33">
-        <v>960460288</v>
+        <v>348033536</v>
       </c>
       <c r="G33">
-        <v>1.000168105915401</v>
+        <v>1.000047588161914</v>
       </c>
       <c r="H33">
-        <v>1.000140175223351</v>
+        <v>1.000026580691338</v>
       </c>
       <c r="I33">
-        <v>1.000201467672984</v>
+        <v>1.000065823396047</v>
       </c>
       <c r="L33">
-        <v>52.31008772450958</v>
+        <v>50.83640096691926</v>
       </c>
       <c r="M33">
-        <v>51.15527992403288</v>
+        <v>50.46727976384105</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1861,34 +1861,34 @@
         <v>46</v>
       </c>
       <c r="B34">
-        <v>1.000154376029968</v>
+        <v>1.000024795532227</v>
       </c>
       <c r="C34">
-        <v>1.000387072563171</v>
+        <v>1.000195622444153</v>
       </c>
       <c r="D34">
-        <v>0.9994847774505616</v>
+        <v>0.9994128346443176</v>
       </c>
       <c r="E34">
-        <v>1.000012040138245</v>
+        <v>0.9999781250953674</v>
       </c>
       <c r="F34">
-        <v>402073088</v>
+        <v>189619712</v>
       </c>
       <c r="G34">
-        <v>1.000153918117478</v>
+        <v>1.000041273337682</v>
       </c>
       <c r="H34">
-        <v>1.000121960043907</v>
+        <v>1.000018388032913</v>
       </c>
       <c r="I34">
-        <v>1.000204334656398</v>
+        <v>1.000061164299647</v>
       </c>
       <c r="L34">
-        <v>43.53554851975301</v>
+        <v>47.45386369421323</v>
       </c>
       <c r="M34">
-        <v>45.69182122090319</v>
+        <v>48.0095988943286</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1896,34 +1896,34 @@
         <v>47</v>
       </c>
       <c r="B35">
-        <v>1.000042796134949</v>
+        <v>1.000036716461182</v>
       </c>
       <c r="C35">
-        <v>1.00027859210968</v>
+        <v>1.000247716903686</v>
       </c>
       <c r="D35">
-        <v>0.9995123744010924</v>
+        <v>0.999688684940338</v>
       </c>
       <c r="E35">
-        <v>0.9999791383743286</v>
+        <v>1.000087976455688</v>
       </c>
       <c r="F35">
-        <v>709966336</v>
+        <v>14044672</v>
       </c>
       <c r="G35">
-        <v>1.000138029049919</v>
+        <v>1.000045519075683</v>
       </c>
       <c r="H35">
-        <v>1.0001066416502</v>
+        <v>1.000023996829987</v>
       </c>
       <c r="I35">
-        <v>1.000187597672145</v>
+        <v>1.00006321867307</v>
       </c>
       <c r="L35">
-        <v>42.01587128794466</v>
+        <v>52.46378186956699</v>
       </c>
       <c r="M35">
-        <v>44.70627508695229</v>
+        <v>51.58454870415971</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -1931,34 +1931,34 @@
         <v>48</v>
       </c>
       <c r="B36">
-        <v>1.000141024589539</v>
+        <v>1.00007963180542</v>
       </c>
       <c r="C36">
-        <v>1.000440120697022</v>
+        <v>1.000354409217834</v>
       </c>
       <c r="D36">
-        <v>0.9995937943458556</v>
+        <v>0.9998108148574828</v>
       </c>
       <c r="E36">
-        <v>1.000064373016357</v>
+        <v>1.000161647796631</v>
       </c>
       <c r="F36">
-        <v>916561920</v>
+        <v>70747136</v>
       </c>
       <c r="G36">
-        <v>1.000131333046868</v>
+        <v>1.000056076232132</v>
       </c>
       <c r="H36">
-        <v>1.000085142254829</v>
+        <v>1.000032621622086</v>
       </c>
       <c r="I36">
-        <v>1.000186421473821</v>
+        <v>1.000069936116536</v>
       </c>
       <c r="L36">
-        <v>47.37001545368891</v>
+        <v>55.65379152137514</v>
       </c>
       <c r="M36">
-        <v>47.84474661127133</v>
+        <v>53.87520057270569</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -1966,34 +1966,34 @@
         <v>49</v>
       </c>
       <c r="B37">
-        <v>1.000027060508728</v>
+        <v>1.000106573104858</v>
       </c>
       <c r="C37">
-        <v>1.00038206577301</v>
+        <v>1.000722289085388</v>
       </c>
       <c r="D37">
-        <v>0.999799907207489</v>
+        <v>0.9998751878738404</v>
       </c>
       <c r="E37">
-        <v>0.9999558329582214</v>
+        <v>1.000187754631042</v>
       </c>
       <c r="F37">
-        <v>433620992</v>
+        <v>285603328</v>
       </c>
       <c r="G37">
-        <v>1.000115378493354</v>
+        <v>1.00006804699567</v>
       </c>
       <c r="H37">
-        <v>1.000072932243347</v>
+        <v>1.000038075447083</v>
       </c>
       <c r="I37">
-        <v>1.000165311495463</v>
+        <v>1.000065370400747</v>
       </c>
       <c r="L37">
-        <v>41.83580707547977</v>
+        <v>56.80928092346301</v>
       </c>
       <c r="M37">
-        <v>44.38948420212272</v>
+        <v>54.69324776901213</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2001,34 +2001,34 @@
         <v>50</v>
       </c>
       <c r="B38">
-        <v>0.9998608231544496</v>
+        <v>1.000195741653442</v>
       </c>
       <c r="C38">
-        <v>1.000760436058044</v>
+        <v>1.000400066375732</v>
       </c>
       <c r="D38">
-        <v>0.9998288154602052</v>
+        <v>0.9999761581420898</v>
       </c>
       <c r="E38">
-        <v>1.000125050544739</v>
+        <v>1.000150442123413</v>
       </c>
       <c r="F38">
-        <v>256248832</v>
+        <v>52035072</v>
       </c>
       <c r="G38">
-        <v>1.000116257770753</v>
+        <v>1.000075537461828</v>
       </c>
       <c r="H38">
-        <v>1.000081351399422</v>
+        <v>1.000049775838852</v>
       </c>
       <c r="I38">
-        <v>1.000151034196218</v>
+        <v>1.000068275133769</v>
       </c>
       <c r="L38">
-        <v>51.72729425641838</v>
+        <v>54.52495770160024</v>
       </c>
       <c r="M38">
-        <v>50.40317114192789</v>
+        <v>53.2399115357549</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2036,34 +2036,34 @@
         <v>51</v>
       </c>
       <c r="B39">
-        <v>1.000090003013611</v>
+        <v>1.000038981437683</v>
       </c>
       <c r="C39">
-        <v>1.000730276107788</v>
+        <v>1.000402927398682</v>
       </c>
       <c r="D39">
-        <v>0.9999029040336608</v>
+        <v>0.9995476603507996</v>
       </c>
       <c r="E39">
-        <v>1.000043749809265</v>
+        <v>0.9998607635498048</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1572263424</v>
       </c>
       <c r="G39">
-        <v>1.000109666137891</v>
+        <v>1.000056012560735</v>
       </c>
       <c r="H39">
-        <v>1.000081363320351</v>
+        <v>1.000038504600525</v>
       </c>
       <c r="I39">
-        <v>1.000145618120829</v>
+        <v>1.000060021877289</v>
       </c>
       <c r="L39">
-        <v>47.37281176144692</v>
+        <v>40.35303137027477</v>
       </c>
       <c r="M39">
-        <v>47.73243406803174</v>
+        <v>43.56190573215513</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2071,34 +2071,34 @@
         <v>52</v>
       </c>
       <c r="B40">
-        <v>1.000031709671021</v>
+        <v>1.000030755996704</v>
       </c>
       <c r="C40">
-        <v>1.000687837600708</v>
+        <v>1.000304698944092</v>
       </c>
       <c r="D40">
-        <v>0.9998461008071901</v>
+        <v>0.9995364546775818</v>
       </c>
       <c r="E40">
-        <v>1.000239729881287</v>
+        <v>1.000234246253967</v>
       </c>
       <c r="F40">
-        <v>36641792</v>
+        <v>15822336</v>
       </c>
       <c r="G40">
-        <v>1.000121490114563</v>
+        <v>1.000072215623756</v>
       </c>
       <c r="H40">
-        <v>1.000083699822426</v>
+        <v>1.000047099590301</v>
       </c>
       <c r="I40">
-        <v>1.000141362349192</v>
+        <v>1.000065275033315</v>
       </c>
       <c r="L40">
-        <v>57.15409928170264</v>
+        <v>56.68336081209188</v>
       </c>
       <c r="M40">
-        <v>54.0527005096943</v>
+        <v>54.93600570003247</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2106,34 +2106,34 @@
         <v>53</v>
       </c>
       <c r="B41">
-        <v>1.000159978866577</v>
+        <v>1.000165700912476</v>
       </c>
       <c r="C41">
-        <v>1.00056803226471</v>
+        <v>1.000466465950012</v>
       </c>
       <c r="D41">
-        <v>0.9998317956924438</v>
+        <v>0.9999379515647888</v>
       </c>
       <c r="E41">
-        <v>1.000293254852295</v>
+        <v>1.000049114227295</v>
       </c>
       <c r="F41">
-        <v>421927936</v>
+        <v>74973696</v>
       </c>
       <c r="G41">
-        <v>1.00013710509072</v>
+        <v>1.000070115496805</v>
       </c>
       <c r="H41">
-        <v>1.000096622109413</v>
+        <v>1.0000463783741</v>
       </c>
       <c r="I41">
-        <v>1.0001358350118</v>
+        <v>1.00005609591802</v>
       </c>
       <c r="L41">
-        <v>59.46868668082024</v>
+        <v>49.17545914288575</v>
       </c>
       <c r="M41">
-        <v>55.63072821353735</v>
+        <v>49.59993525698562</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2141,34 +2141,34 @@
         <v>54</v>
       </c>
       <c r="B42">
-        <v>1.000173449516296</v>
+        <v>1.000373125076294</v>
       </c>
       <c r="C42">
-        <v>1.000925540924072</v>
+        <v>1.000521540641785</v>
       </c>
       <c r="D42">
-        <v>0.9978137612342834</v>
+        <v>0.9999964237213136</v>
       </c>
       <c r="E42">
-        <v>1.000249743461609</v>
+        <v>1.000214457511902</v>
       </c>
       <c r="F42">
-        <v>2338298368</v>
+        <v>288303104</v>
       </c>
       <c r="G42">
-        <v>1.000147344942619</v>
+        <v>1.000083237498177</v>
       </c>
       <c r="H42">
-        <v>1.000110760331154</v>
+        <v>1.000053018331528</v>
       </c>
       <c r="I42">
-        <v>1.000138203303019</v>
+        <v>1.000052833557129</v>
       </c>
       <c r="L42">
-        <v>56.66900324947176</v>
+        <v>55.14488407531056</v>
       </c>
       <c r="M42">
-        <v>54.00691812887431</v>
+        <v>53.90616327739894</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2176,34 +2176,34 @@
         <v>55</v>
       </c>
       <c r="B43">
-        <v>1.000067234039307</v>
+        <v>1.000167965888977</v>
       </c>
       <c r="C43">
-        <v>1.000727295875549</v>
+        <v>1.000693321228027</v>
       </c>
       <c r="D43">
-        <v>0.9998429417610168</v>
+        <v>0.9998124241828918</v>
       </c>
       <c r="E43">
-        <v>1.000011444091797</v>
+        <v>1.00025463104248</v>
       </c>
       <c r="F43">
-        <v>867745792</v>
+        <v>579552256</v>
       </c>
       <c r="G43">
-        <v>1.000134990319817</v>
+        <v>1.000098818729478</v>
       </c>
       <c r="H43">
-        <v>1.00011177957058</v>
+        <v>1.000065866112709</v>
       </c>
       <c r="I43">
-        <v>1.000125928719839</v>
+        <v>1.000057025750478</v>
       </c>
       <c r="L43">
-        <v>43.92729873768381</v>
+        <v>56.54013826018463</v>
       </c>
       <c r="M43">
-        <v>46.0748095397195</v>
+        <v>54.91412616674707</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2211,34 +2211,34 @@
         <v>56</v>
       </c>
       <c r="B44">
-        <v>1.000022411346436</v>
+        <v>1.000061511993408</v>
       </c>
       <c r="C44">
-        <v>1.000524282455444</v>
+        <v>1.000710129737854</v>
       </c>
       <c r="D44">
-        <v>0.9998939037322998</v>
+        <v>0.9999380111694336</v>
       </c>
       <c r="E44">
-        <v>1.000123620033264</v>
+        <v>1.000043630599976</v>
       </c>
       <c r="F44">
-        <v>4818944</v>
+        <v>758153216</v>
       </c>
       <c r="G44">
-        <v>1.000133956657403</v>
+        <v>1.000093801626796</v>
       </c>
       <c r="H44">
-        <v>1.000118908286095</v>
+        <v>1.000071775913238</v>
       </c>
       <c r="I44">
-        <v>1.00011750459671</v>
+        <v>1.000053747495016</v>
       </c>
       <c r="L44">
-        <v>49.89359176723703</v>
+        <v>47.76170417157622</v>
       </c>
       <c r="M44">
-        <v>49.81164303149588</v>
+        <v>48.86952252624321</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2246,34 +2246,34 @@
         <v>57</v>
       </c>
       <c r="B45">
-        <v>0.9999160766601562</v>
+        <v>1.000235676765442</v>
       </c>
       <c r="C45">
-        <v>1.000394940376282</v>
+        <v>1.00050163269043</v>
       </c>
       <c r="D45">
-        <v>0.9999046325683594</v>
+        <v>0.9994282722473145</v>
       </c>
       <c r="E45">
-        <v>1.000117897987366</v>
+        <v>0.9997729659080504</v>
       </c>
       <c r="F45">
-        <v>72862720</v>
+        <v>1529282560</v>
       </c>
       <c r="G45">
-        <v>1.000132496778309</v>
+        <v>1.000064634743274</v>
       </c>
       <c r="H45">
-        <v>1.000118246674538</v>
+        <v>1.000058606266975</v>
       </c>
       <c r="I45">
-        <v>1.000111917654673</v>
+        <v>1.000046986341476</v>
       </c>
       <c r="L45">
-        <v>49.59079009780361</v>
+        <v>39.01914307264376</v>
       </c>
       <c r="M45">
-        <v>49.62274425955439</v>
+        <v>42.41922942491549</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2281,34 +2281,34 @@
         <v>58</v>
       </c>
       <c r="B46">
-        <v>1.000132203102112</v>
+        <v>0.9999533295631408</v>
       </c>
       <c r="C46">
-        <v>1.000340104103088</v>
+        <v>1.000341892242432</v>
       </c>
       <c r="D46">
-        <v>0.9999008774757384</v>
+        <v>0.999377429485321</v>
       </c>
       <c r="E46">
-        <v>1.000026345252991</v>
+        <v>0.9998710751533508</v>
       </c>
       <c r="F46">
-        <v>33476608</v>
+        <v>198664192</v>
       </c>
       <c r="G46">
-        <v>1.000122846639644</v>
+        <v>1.000047038416917</v>
       </c>
       <c r="H46">
-        <v>1.000113043189049</v>
+        <v>1.000056073069572</v>
       </c>
       <c r="I46">
-        <v>1.000096317132314</v>
+        <v>1.0000430504481</v>
       </c>
       <c r="L46">
-        <v>44.70695398220694</v>
+        <v>43.2547824629803</v>
       </c>
       <c r="M46">
-        <v>46.579099109059</v>
+        <v>45.24061800445121</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2316,34 +2316,34 @@
         <v>59</v>
       </c>
       <c r="B47">
-        <v>1.000027298927307</v>
+        <v>1.000075578689575</v>
       </c>
       <c r="C47">
-        <v>1.000353217124939</v>
+        <v>1.00023889541626</v>
       </c>
       <c r="D47">
-        <v>0.9999104142189026</v>
+        <v>0.9995166659355164</v>
       </c>
       <c r="E47">
-        <v>0.9999601244926452</v>
+        <v>1.0001620054245</v>
       </c>
       <c r="F47">
-        <v>87659520</v>
+        <v>234908672</v>
       </c>
       <c r="G47">
-        <v>1.000108053717189</v>
+        <v>1.000057489963061</v>
       </c>
       <c r="H47">
-        <v>1.000103056430817</v>
+        <v>1.000061818957329</v>
       </c>
       <c r="I47">
-        <v>1.000088320175807</v>
+        <v>1.000045828024546</v>
       </c>
       <c r="L47">
-        <v>41.39006080818188</v>
+        <v>53.92996873378114</v>
       </c>
       <c r="M47">
-        <v>44.45515588213102</v>
+        <v>52.64980954025985</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2351,34 +2351,34 @@
         <v>60</v>
       </c>
       <c r="B48">
-        <v>0.9999714493751526</v>
+        <v>0.9999121427536012</v>
       </c>
       <c r="C48">
-        <v>1.000595211982727</v>
+        <v>1.00027859210968</v>
       </c>
       <c r="D48">
-        <v>0.999903917312622</v>
+        <v>0.9994406700134276</v>
       </c>
       <c r="E48">
-        <v>1.000324726104736</v>
+        <v>1.000251770019531</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>260891648</v>
       </c>
       <c r="G48">
-        <v>1.000127751206966</v>
+        <v>1.000075151786376</v>
       </c>
       <c r="H48">
-        <v>1.000114661455154</v>
+        <v>1.000081160664558</v>
       </c>
       <c r="I48">
-        <v>1.000100588798523</v>
+        <v>1.000057005882263</v>
       </c>
       <c r="L48">
-        <v>59.84384593028054</v>
+        <v>56.75394705727613</v>
       </c>
       <c r="M48">
-        <v>56.27669249252648</v>
+        <v>54.68701936466511</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2386,34 +2386,34 @@
         <v>61</v>
       </c>
       <c r="B49">
-        <v>1.000156402587891</v>
+        <v>0.9998606443405152</v>
       </c>
       <c r="C49">
-        <v>1.000654935836792</v>
+        <v>1.000441789627075</v>
       </c>
       <c r="D49">
-        <v>0.9998598098754884</v>
+        <v>0.9993795156478882</v>
       </c>
       <c r="E49">
-        <v>1.000063300132752</v>
+        <v>0.9996787309646606</v>
       </c>
       <c r="F49">
-        <v>71194112</v>
+        <v>1062080512</v>
       </c>
       <c r="G49">
-        <v>1.000121892018401</v>
+        <v>1.000039113529857</v>
       </c>
       <c r="H49">
-        <v>1.000118052959442</v>
+        <v>1.000065413117409</v>
       </c>
       <c r="I49">
-        <v>1.000101248423259</v>
+        <v>1.00004342397054</v>
       </c>
       <c r="L49">
-        <v>47.72318553478007</v>
+        <v>39.40631104512769</v>
       </c>
       <c r="M49">
-        <v>48.33352878826185</v>
+        <v>42.20373755839396</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2421,34 +2421,34 @@
         <v>62</v>
       </c>
       <c r="B50">
-        <v>1.000082969665527</v>
+        <v>0.9998215436935424</v>
       </c>
       <c r="C50">
-        <v>1.00042712688446</v>
+        <v>1.000209212303162</v>
       </c>
       <c r="D50">
-        <v>0.9998550415039062</v>
+        <v>0.9994840025901794</v>
       </c>
       <c r="E50">
-        <v>1.000108361244202</v>
+        <v>1.000075936317444</v>
       </c>
       <c r="F50">
-        <v>304631296</v>
+        <v>732790784</v>
       </c>
       <c r="G50">
-        <v>1.000120661948019</v>
+        <v>1.000042461056001</v>
       </c>
       <c r="H50">
-        <v>1.000111776590347</v>
+        <v>1.000061729550362</v>
       </c>
       <c r="I50">
-        <v>1.000098427136739</v>
+        <v>1.000043876965841</v>
       </c>
       <c r="L50">
-        <v>49.69875021529755</v>
+        <v>51.06928239104346</v>
       </c>
       <c r="M50">
-        <v>49.652634349747</v>
+        <v>50.61821018362946</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2456,34 +2456,34 @@
         <v>63</v>
       </c>
       <c r="B51">
-        <v>0.9998750686645508</v>
+        <v>1.000123620033264</v>
       </c>
       <c r="C51">
-        <v>1.0004061460495</v>
+        <v>1.000329613685608</v>
       </c>
       <c r="D51">
-        <v>0.9996708631515504</v>
+        <v>0.9995219707489014</v>
       </c>
       <c r="E51">
-        <v>1.000076651573181</v>
+        <v>0.9999933242797852</v>
       </c>
       <c r="F51">
-        <v>595168256</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1.000116661004852</v>
+        <v>1.000037994076345</v>
       </c>
       <c r="H51">
-        <v>1.000103121995926</v>
+        <v>1.000049105286598</v>
       </c>
       <c r="I51">
-        <v>1.000099821885427</v>
+        <v>1.000041536490123</v>
       </c>
       <c r="L51">
-        <v>48.2550814839129</v>
+        <v>48.86842975495767</v>
       </c>
       <c r="M51">
-        <v>48.71017003190418</v>
+        <v>49.01971670178991</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2491,34 +2491,34 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <v>1.000046372413635</v>
+        <v>1.000196933746338</v>
       </c>
       <c r="C52">
-        <v>1.000421643257141</v>
+        <v>1.00025475025177</v>
       </c>
       <c r="D52">
-        <v>0.9998825788497924</v>
+        <v>0.9996117353439332</v>
       </c>
       <c r="E52">
-        <v>1.000324487686157</v>
+        <v>1.000154733657837</v>
       </c>
       <c r="F52">
-        <v>174034432</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1.000135554339516</v>
+        <v>1.000048606765571</v>
       </c>
       <c r="H52">
-        <v>1.000114178657532</v>
+        <v>1.000061973929405</v>
       </c>
       <c r="I52">
-        <v>1.000111738840739</v>
+        <v>1.000043972333272</v>
       </c>
       <c r="L52">
-        <v>58.7826393263239</v>
+        <v>53.2928142486356</v>
       </c>
       <c r="M52">
-        <v>55.77564924954677</v>
+        <v>52.19613170857784</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2526,34 +2526,34 @@
         <v>65</v>
       </c>
       <c r="B53">
-        <v>1.000242233276367</v>
+        <v>1.000108480453491</v>
       </c>
       <c r="C53">
-        <v>1.000471830368042</v>
+        <v>1.000249624252319</v>
       </c>
       <c r="D53">
-        <v>0.9998000264167786</v>
+        <v>0.9995754957199096</v>
       </c>
       <c r="E53">
-        <v>1.000312328338623</v>
+        <v>1.000056385993958</v>
       </c>
       <c r="F53">
-        <v>133078016</v>
+        <v>6487040</v>
       </c>
       <c r="G53">
-        <v>1.000151624703071</v>
+        <v>1.000049313968152</v>
       </c>
       <c r="H53">
-        <v>1.000120609998703</v>
+        <v>1.000061985850334</v>
       </c>
       <c r="I53">
-        <v>1.000122447808584</v>
+        <v>1.000045929352442</v>
       </c>
       <c r="L53">
-        <v>58.12987334909629</v>
+        <v>50.30883499979772</v>
       </c>
       <c r="M53">
-        <v>55.37262070306496</v>
+        <v>50.14595693435847</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2561,34 +2561,34 @@
         <v>66</v>
       </c>
       <c r="B54">
-        <v>1.000165343284607</v>
+        <v>1.000054240226746</v>
       </c>
       <c r="C54">
-        <v>1.000583052635193</v>
+        <v>1.000322222709656</v>
       </c>
       <c r="D54">
-        <v>0.9997751712799072</v>
+        <v>0.9994910955429076</v>
       </c>
       <c r="E54">
-        <v>1.000128865242004</v>
+        <v>1.00015389919281</v>
       </c>
       <c r="F54">
-        <v>61267968</v>
+        <v>89381888</v>
       </c>
       <c r="G54">
-        <v>1.000149555661156</v>
+        <v>1.000058821715848</v>
       </c>
       <c r="H54">
-        <v>1.000126451253891</v>
+        <v>1.000070774555206</v>
       </c>
       <c r="I54">
-        <v>1.000127375125885</v>
+        <v>1.000053544839223</v>
       </c>
       <c r="L54">
-        <v>48.91049823043387</v>
+        <v>53.22993860964282</v>
       </c>
       <c r="M54">
-        <v>49.55432403386877</v>
+        <v>52.15271006932539</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2596,34 +2596,34 @@
         <v>67</v>
       </c>
       <c r="B55">
-        <v>1.000092029571533</v>
+        <v>1.000119686126709</v>
       </c>
       <c r="C55">
-        <v>1.000743627548218</v>
+        <v>1.000374674797058</v>
       </c>
       <c r="D55">
-        <v>1.000015735626221</v>
+        <v>0.9997955560684204</v>
       </c>
       <c r="E55">
-        <v>1.000141978263855</v>
+        <v>0.9999070763587952</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1.000148866806856</v>
+        <v>1.000045026683389</v>
       </c>
       <c r="H55">
-        <v>1.000134593248367</v>
+        <v>1.000061729550362</v>
       </c>
       <c r="I55">
-        <v>1.000127736727397</v>
+        <v>1.000049235423406</v>
       </c>
       <c r="L55">
-        <v>49.55383277534446</v>
+        <v>45.5971996831737</v>
       </c>
       <c r="M55">
-        <v>49.95905370646761</v>
+        <v>46.99612453346207</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2631,34 +2631,34 @@
         <v>68</v>
       </c>
       <c r="B56">
-        <v>1.000232934951782</v>
+        <v>0.999930500984192</v>
       </c>
       <c r="C56">
-        <v>1.000555753707886</v>
+        <v>1.000801205635071</v>
       </c>
       <c r="D56">
-        <v>0.9998778700828552</v>
+        <v>0.9998310804367064</v>
       </c>
       <c r="E56">
-        <v>0.9999758005142212</v>
+        <v>1.000248908996582</v>
       </c>
       <c r="F56">
-        <v>88742400</v>
+        <v>272909824</v>
       </c>
       <c r="G56">
-        <v>1.000133133507525</v>
+        <v>1.000063561439134</v>
       </c>
       <c r="H56">
-        <v>1.000130164623261</v>
+        <v>1.000066092610359</v>
       </c>
       <c r="I56">
-        <v>1.000122582912445</v>
+        <v>1.000060141086578</v>
       </c>
       <c r="L56">
-        <v>42.01164261254056</v>
+        <v>55.5318805414858</v>
       </c>
       <c r="M56">
-        <v>45.02862629001623</v>
+        <v>53.80797658457546</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2666,34 +2666,34 @@
         <v>69</v>
       </c>
       <c r="B57">
-        <v>1.000053882598877</v>
+        <v>1.000152945518494</v>
       </c>
       <c r="C57">
-        <v>1.000480890274048</v>
+        <v>1.000689387321472</v>
       </c>
       <c r="D57">
-        <v>0.99983149766922</v>
+        <v>0.9997045993804932</v>
       </c>
       <c r="E57">
-        <v>0.9999891519546508</v>
+        <v>1.000423312187195</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1164253184</v>
       </c>
       <c r="G57">
-        <v>1.000120044275446</v>
+        <v>1.000096266052594</v>
       </c>
       <c r="H57">
-        <v>1.000131830573082</v>
+        <v>1.000077870488167</v>
       </c>
       <c r="I57">
-        <v>1.00011689265569</v>
+        <v>1.000072681903839</v>
       </c>
       <c r="L57">
-        <v>42.7985704008578</v>
+        <v>59.75064266038643</v>
       </c>
       <c r="M57">
-        <v>45.49405606552253</v>
+        <v>56.85459271938058</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2701,34 +2701,34 @@
         <v>70</v>
       </c>
       <c r="B58">
-        <v>1.000156164169312</v>
+        <v>1.000476837158203</v>
       </c>
       <c r="C58">
-        <v>1.00049614906311</v>
+        <v>1.000552415847778</v>
       </c>
       <c r="D58">
-        <v>0.999860405921936</v>
+        <v>0.9998528361320496</v>
       </c>
       <c r="E58">
-        <v>1.000078678131104</v>
+        <v>1.000160694122314</v>
       </c>
       <c r="F58">
-        <v>9122304</v>
+        <v>216827904</v>
       </c>
       <c r="G58">
-        <v>1.000116283716869</v>
+        <v>1.000102123149841</v>
       </c>
       <c r="H58">
-        <v>1.0001295119524</v>
+        <v>1.000078383088112</v>
       </c>
       <c r="I58">
-        <v>1.000116427739461</v>
+        <v>1.000082540512085</v>
       </c>
       <c r="L58">
-        <v>48.11045214470403</v>
+        <v>51.47740314361839</v>
       </c>
       <c r="M58">
-        <v>48.63453166560965</v>
+        <v>51.36119862990392</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -2736,34 +2736,34 @@
         <v>71</v>
       </c>
       <c r="B59">
-        <v>1.000055074691772</v>
+        <v>1.00015914440155</v>
       </c>
       <c r="C59">
-        <v>1.000204563140869</v>
+        <v>1.000415802001953</v>
       </c>
       <c r="D59">
-        <v>0.9998043775558472</v>
+        <v>0.9998323321342468</v>
       </c>
       <c r="E59">
-        <v>0.9999164342880248</v>
+        <v>1.000186800956726</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>79159296</v>
       </c>
       <c r="G59">
-        <v>1.000098115586974</v>
+        <v>1.000109821132285</v>
       </c>
       <c r="H59">
-        <v>1.000123146176338</v>
+        <v>1.000094684958458</v>
       </c>
       <c r="I59">
-        <v>1.000113793214162</v>
+        <v>1.000088977813721</v>
       </c>
       <c r="L59">
-        <v>40.45183361933497</v>
+        <v>52.21732459738939</v>
       </c>
       <c r="M59">
-        <v>43.71844901111803</v>
+        <v>51.859168528434</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2771,34 +2771,34 @@
         <v>72</v>
       </c>
       <c r="B60">
-        <v>0.999960482120514</v>
+        <v>1.000029325485229</v>
       </c>
       <c r="C60">
-        <v>1.00022292137146</v>
+        <v>1.000269293785095</v>
       </c>
       <c r="D60">
-        <v>0.9997842311859132</v>
+        <v>0.999800443649292</v>
       </c>
       <c r="E60">
-        <v>1.000086188316345</v>
+        <v>0.999958634376526</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>4637696</v>
       </c>
       <c r="G60">
-        <v>1.000097031289644</v>
+        <v>1.000096076881762</v>
       </c>
       <c r="H60">
-        <v>1.000115469098091</v>
+        <v>1.000080904364586</v>
       </c>
       <c r="I60">
-        <v>1.000108869870504</v>
+        <v>1.000082612037659</v>
       </c>
       <c r="L60">
-        <v>49.84896477312981</v>
+        <v>45.40908711434651</v>
       </c>
       <c r="M60">
-        <v>49.47327427006317</v>
+        <v>47.30116586619056</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -2806,34 +2806,34 @@
         <v>73</v>
       </c>
       <c r="B61">
-        <v>0.999996542930603</v>
+        <v>0.9999402761459352</v>
       </c>
       <c r="C61">
-        <v>1.000233769416809</v>
+        <v>1.00045907497406</v>
       </c>
       <c r="D61">
-        <v>0.9998356103897096</v>
+        <v>0.9997495412826538</v>
       </c>
       <c r="E61">
-        <v>1.000062346458435</v>
+        <v>1.000090599060059</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1.000093878123171</v>
+        <v>1.00009557889797</v>
       </c>
       <c r="H61">
-        <v>1.000103923678398</v>
+        <v>1.000082978606224</v>
       </c>
       <c r="I61">
-        <v>1.000102623303731</v>
+        <v>1.000077438354492</v>
       </c>
       <c r="L61">
-        <v>48.63624771701943</v>
+        <v>49.67817116866312</v>
       </c>
       <c r="M61">
-        <v>48.7197865980302</v>
+        <v>50.0363917076814</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -2841,34 +2841,34 @@
         <v>74</v>
       </c>
       <c r="B62">
-        <v>1.00002646446228</v>
+        <v>1.000128030776978</v>
       </c>
       <c r="C62">
-        <v>1.000251054763794</v>
+        <v>1.000556468963623</v>
       </c>
       <c r="D62">
-        <v>0.9998180866241456</v>
+        <v>0.9998703598976136</v>
       </c>
       <c r="E62">
-        <v>1.000063538551331</v>
+        <v>1.000104665756226</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1.000091119980276</v>
+        <v>1.000096404975994</v>
       </c>
       <c r="H62">
-        <v>1.000094613432884</v>
+        <v>1.00007748901844</v>
       </c>
       <c r="I62">
-        <v>1.000101296106974</v>
+        <v>1.000084348519643</v>
       </c>
       <c r="L62">
-        <v>48.70643989395717</v>
+        <v>50.14569518222083</v>
       </c>
       <c r="M62">
-        <v>48.76180639939606</v>
+        <v>50.33231907858425</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -2876,34 +2876,34 @@
         <v>75</v>
       </c>
       <c r="B63">
-        <v>0.999992847442627</v>
+        <v>1.000286340713501</v>
       </c>
       <c r="C63">
-        <v>1.00054943561554</v>
+        <v>1.000320672988892</v>
       </c>
       <c r="D63">
-        <v>0.9998562932014464</v>
+        <v>0.9999681115150452</v>
       </c>
       <c r="E63">
-        <v>1.000081658363343</v>
+        <v>1.000087738037109</v>
       </c>
       <c r="F63">
-        <v>25542144</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1.000090259833282</v>
+        <v>1.000095617072459</v>
       </c>
       <c r="H63">
-        <v>1.000098124146461</v>
+        <v>1.000069144368172</v>
       </c>
       <c r="I63">
-        <v>1.000097894668579</v>
+        <v>1.000085401535034</v>
       </c>
       <c r="L63">
-        <v>49.87771507384519</v>
+        <v>49.5228048362677</v>
       </c>
       <c r="M63">
-        <v>49.43997815056544</v>
+        <v>49.94892227884495</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -2911,34 +2911,34 @@
         <v>76</v>
       </c>
       <c r="B64">
-        <v>0.999938189983368</v>
+        <v>1.000187516212463</v>
       </c>
       <c r="C64">
-        <v>1.000449538230896</v>
+        <v>1.00026535987854</v>
       </c>
       <c r="D64">
-        <v>0.9998411536216736</v>
+        <v>0.999937891960144</v>
       </c>
       <c r="E64">
-        <v>0.9999976754188538</v>
+        <v>1.000027775764465</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1.000081843068334</v>
+        <v>1.000089449680823</v>
       </c>
       <c r="H64">
-        <v>1.000091826915741</v>
+        <v>1.000068351626396</v>
       </c>
       <c r="I64">
-        <v>1.000097415844599</v>
+        <v>1.000087056557337</v>
       </c>
       <c r="L64">
-        <v>44.5708620118384</v>
+        <v>47.18702090651048</v>
       </c>
       <c r="M64">
-        <v>46.37616146161955</v>
+        <v>48.53849034907366</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -2946,34 +2946,34 @@
         <v>77</v>
       </c>
       <c r="B65">
-        <v>0.9999173283576964</v>
+        <v>1.000223636627197</v>
       </c>
       <c r="C65">
-        <v>1.000585317611694</v>
+        <v>1.000532865524292</v>
       </c>
       <c r="D65">
-        <v>0.999690055847168</v>
+        <v>0.9998867511749268</v>
       </c>
       <c r="E65">
-        <v>0.999925434589386</v>
+        <v>1.000186800956726</v>
       </c>
       <c r="F65">
-        <v>7018752</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1.000067624115702</v>
+        <v>1.000098299796814</v>
       </c>
       <c r="H65">
-        <v>1.000082203745842</v>
+        <v>1.00008904337883</v>
       </c>
       <c r="I65">
-        <v>1.000095625718435</v>
+        <v>1.000090350707372</v>
       </c>
       <c r="L65">
-        <v>40.41017199369654</v>
+        <v>53.70222361004878</v>
       </c>
       <c r="M65">
-        <v>43.85840537372712</v>
+        <v>52.37906699627856</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -2981,34 +2981,34 @@
         <v>78</v>
       </c>
       <c r="B66">
-        <v>1.000110864639282</v>
+        <v>1.00019383430481</v>
       </c>
       <c r="C66">
-        <v>1.000321507453918</v>
+        <v>1.000569820404053</v>
       </c>
       <c r="D66">
-        <v>0.999665379524231</v>
+        <v>1.000028610229492</v>
       </c>
       <c r="E66">
-        <v>1.000036358833313</v>
+        <v>1.000206232070923</v>
       </c>
       <c r="F66">
-        <v>165747456</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.000064781817303</v>
+        <v>1.000108111821733</v>
       </c>
       <c r="H66">
-        <v>1.000082704424858</v>
+        <v>1.000105801224709</v>
       </c>
       <c r="I66">
-        <v>1.000094691912333</v>
+        <v>1.000091836849848</v>
       </c>
       <c r="L66">
-        <v>48.6849337258119</v>
+        <v>54.47424392860835</v>
       </c>
       <c r="M66">
-        <v>48.48323634123797</v>
+        <v>52.8421769560744</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3016,34 +3016,34 @@
         <v>79</v>
       </c>
       <c r="B67">
-        <v>1.000017762184143</v>
+        <v>1.000231623649597</v>
       </c>
       <c r="C67">
-        <v>1.000394940376282</v>
+        <v>1.000519156455994</v>
       </c>
       <c r="D67">
-        <v>0.9997103214263916</v>
+        <v>0.9999156594276428</v>
       </c>
       <c r="E67">
-        <v>0.99992173910141</v>
+        <v>1.000358939170837</v>
       </c>
       <c r="F67">
-        <v>153849088</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1.00005177793404</v>
+        <v>1.000130914308015</v>
       </c>
       <c r="H67">
-        <v>1.000080785155296</v>
+        <v>1.000115647912025</v>
       </c>
       <c r="I67">
-        <v>1.00009355545044</v>
+        <v>1.000097543001175</v>
       </c>
       <c r="L67">
-        <v>41.91830279787765</v>
+        <v>60.3236803601758</v>
       </c>
       <c r="M67">
-        <v>44.41197654460249</v>
+        <v>56.42838963190344</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3051,34 +3051,34 @@
         <v>80</v>
       </c>
       <c r="B68">
-        <v>1.000024199485779</v>
+        <v>1.000358581542969</v>
       </c>
       <c r="C68">
-        <v>1.0003741979599</v>
+        <v>1.000518202781677</v>
       </c>
       <c r="D68">
-        <v>0.9996975660324096</v>
+        <v>0.999896764755249</v>
       </c>
       <c r="E68">
-        <v>1.000047087669373</v>
+        <v>1.000040769577026</v>
       </c>
       <c r="F68">
-        <v>222100480</v>
+        <v>45452288</v>
       </c>
       <c r="G68">
-        <v>1.000051351546343</v>
+        <v>1.000122719332471</v>
       </c>
       <c r="H68">
-        <v>1.000066903233528</v>
+        <v>1.0001050978899</v>
       </c>
       <c r="I68">
-        <v>1.000090956687927</v>
+        <v>1.000093887249629</v>
       </c>
       <c r="L68">
-        <v>50.39982204264722</v>
+        <v>46.36117730752819</v>
       </c>
       <c r="M68">
-        <v>49.41469706569878</v>
+        <v>48.20325871286637</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3086,34 +3086,34 @@
         <v>81</v>
       </c>
       <c r="B69">
-        <v>1.000037789344788</v>
+        <v>1.00010359287262</v>
       </c>
       <c r="C69">
-        <v>1.000345945358276</v>
+        <v>1.00050151348114</v>
       </c>
       <c r="D69">
-        <v>0.999683439731598</v>
+        <v>0.999917209148407</v>
       </c>
       <c r="E69">
-        <v>0.999864935874939</v>
+        <v>1.000096201896668</v>
       </c>
       <c r="F69">
-        <v>527674880</v>
+        <v>720742144</v>
       </c>
       <c r="G69">
-        <v>1.000034404667125</v>
+        <v>1.000120308656488</v>
       </c>
       <c r="H69">
-        <v>1.000056985020638</v>
+        <v>1.000125971436501</v>
       </c>
       <c r="I69">
-        <v>1.00008499622345</v>
+        <v>1.000101735194524</v>
       </c>
       <c r="L69">
-        <v>40.6867979610105</v>
+        <v>48.68896376869057</v>
       </c>
       <c r="M69">
-        <v>43.31433734760459</v>
+        <v>49.5821145209628</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3121,34 +3121,34 @@
         <v>82</v>
       </c>
       <c r="B70">
-        <v>0.9998839497566224</v>
+        <v>1.000155329704285</v>
       </c>
       <c r="C70">
-        <v>1.000320792198181</v>
+        <v>1.000488877296448</v>
       </c>
       <c r="D70">
-        <v>0.9997544288635254</v>
+        <v>0.99985009431839</v>
       </c>
       <c r="E70">
-        <v>0.9999936819076538</v>
+        <v>1.000304818153381</v>
       </c>
       <c r="F70">
-        <v>516716288</v>
+        <v>319741952</v>
       </c>
       <c r="G70">
-        <v>1.000030702598082</v>
+        <v>1.000137082247115</v>
       </c>
       <c r="H70">
-        <v>1.00005125105381</v>
+        <v>1.000137415528297</v>
       </c>
       <c r="I70">
-        <v>1.000076794624329</v>
+        <v>1.000104087591171</v>
       </c>
       <c r="L70">
-        <v>48.56830430351809</v>
+        <v>56.65342351612983</v>
       </c>
       <c r="M70">
-        <v>48.18348139423514</v>
+        <v>54.49202634039509</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3156,34 +3156,34 @@
         <v>83</v>
       </c>
       <c r="B71">
-        <v>0.9999551773071288</v>
+        <v>1.000196814537048</v>
       </c>
       <c r="C71">
-        <v>1.000857830047607</v>
+        <v>1.000507235527039</v>
       </c>
       <c r="D71">
-        <v>0.9997513890266418</v>
+        <v>0.9999325275421144</v>
       </c>
       <c r="E71">
-        <v>1.000149607658386</v>
+        <v>1.000141501426697</v>
       </c>
       <c r="F71">
-        <v>384482816</v>
+        <v>77671680</v>
       </c>
       <c r="G71">
-        <v>1.000041512149018</v>
+        <v>1.000137483990713</v>
       </c>
       <c r="H71">
-        <v>1.00005489885807</v>
+        <v>1.000144824385643</v>
       </c>
       <c r="I71">
-        <v>1.000072006384532</v>
+        <v>1.000107167164485</v>
       </c>
       <c r="L71">
-        <v>56.45250311220954</v>
+        <v>49.84009349560534</v>
       </c>
       <c r="M71">
-        <v>53.40381683829914</v>
+        <v>50.35754693508259</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3191,34 +3191,34 @@
         <v>84</v>
       </c>
       <c r="B72">
-        <v>1.000009059906006</v>
+        <v>1.000198483467102</v>
       </c>
       <c r="C72">
-        <v>1.000532150268555</v>
+        <v>1.000850081443787</v>
       </c>
       <c r="D72">
-        <v>0.9999254941940308</v>
+        <v>0.9998947381973268</v>
       </c>
       <c r="E72">
-        <v>1.000245809555054</v>
+        <v>1.000131130218506</v>
       </c>
       <c r="F72">
-        <v>1060303360</v>
+        <v>266702592</v>
       </c>
       <c r="G72">
-        <v>1.000060084640476</v>
+        <v>1.000136906375058</v>
       </c>
       <c r="H72">
-        <v>1.000050964951515</v>
+        <v>1.000143644213676</v>
       </c>
       <c r="I72">
-        <v>1.000071875254313</v>
+        <v>1.000104389588038</v>
       </c>
       <c r="L72">
-        <v>60.64039767252608</v>
+        <v>49.41552488050809</v>
       </c>
       <c r="M72">
-        <v>56.32723753562301</v>
+        <v>50.09759793760227</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3226,34 +3226,34 @@
         <v>85</v>
       </c>
       <c r="B73">
-        <v>1.000059962272644</v>
+        <v>1.000249981880188</v>
       </c>
       <c r="C73">
-        <v>1.00040078163147</v>
+        <v>1.000540971755981</v>
       </c>
       <c r="D73">
-        <v>0.9994757175445556</v>
+        <v>0.9998461604118348</v>
       </c>
       <c r="E73">
-        <v>0.9998973608016968</v>
+        <v>1.000035643577576</v>
       </c>
       <c r="F73">
-        <v>1311353856</v>
+        <v>682180608</v>
       </c>
       <c r="G73">
-        <v>1.000045291564224</v>
+        <v>1.000127700666196</v>
       </c>
       <c r="H73">
-        <v>1.000030216574669</v>
+        <v>1.000142607092857</v>
       </c>
       <c r="I73">
-        <v>1.000068072477976</v>
+        <v>1.000097090005875</v>
       </c>
       <c r="L73">
-        <v>43.56762010394193</v>
+        <v>45.40892439270933</v>
       </c>
       <c r="M73">
-        <v>45.25270338742853</v>
+        <v>47.65832551003296</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -3261,34 +3261,34 @@
         <v>86</v>
       </c>
       <c r="B74">
-        <v>0.9999402761459352</v>
+        <v>1.000061631202698</v>
       </c>
       <c r="C74">
-        <v>1.000234603881836</v>
+        <v>1.000573039054871</v>
       </c>
       <c r="D74">
-        <v>0.9996071457862854</v>
+        <v>0.9999014735221864</v>
       </c>
       <c r="E74">
-        <v>1.000056147575378</v>
+        <v>1.000089287757874</v>
       </c>
       <c r="F74">
-        <v>348033536</v>
+        <v>348777472</v>
       </c>
       <c r="G74">
-        <v>1.000046278474328</v>
+        <v>1.000124208583621</v>
       </c>
       <c r="H74">
-        <v>1.000026580691338</v>
+        <v>1.000139376521111</v>
       </c>
       <c r="I74">
-        <v>1.000065823396047</v>
+        <v>1.000098611911138</v>
       </c>
       <c r="L74">
-        <v>50.68541481086434</v>
+        <v>48.07003646183971</v>
       </c>
       <c r="M74">
-        <v>50.07025579695564</v>
+        <v>49.15610171285838</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -3296,34 +3296,34 @@
         <v>87</v>
       </c>
       <c r="B75">
-        <v>1.000024795532227</v>
+        <v>1.000125646591186</v>
       </c>
       <c r="C75">
-        <v>1.000195622444153</v>
+        <v>1.000547289848328</v>
       </c>
       <c r="D75">
-        <v>0.9994128346443176</v>
+        <v>0.9999045133590698</v>
       </c>
       <c r="E75">
-        <v>0.9999781250953674</v>
+        <v>1.000311851501465</v>
       </c>
       <c r="F75">
-        <v>189619712</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1.000040082712605</v>
+        <v>1.000141267030698</v>
       </c>
       <c r="H75">
-        <v>1.000018388032913</v>
+        <v>1.000159615278244</v>
       </c>
       <c r="I75">
-        <v>1.000061164299647</v>
+        <v>1.000116574764252</v>
       </c>
       <c r="L75">
-        <v>47.38181997404044</v>
+        <v>57.69533304754048</v>
       </c>
       <c r="M75">
-        <v>47.84249920763924</v>
+        <v>54.91980466940525</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -3331,34 +3331,34 @@
         <v>88</v>
       </c>
       <c r="B76">
-        <v>1.000036716461182</v>
+        <v>1.000217914581299</v>
       </c>
       <c r="C76">
-        <v>1.000247716903686</v>
+        <v>1.000614166259766</v>
       </c>
       <c r="D76">
-        <v>0.999688684940338</v>
+        <v>0.9999008178710938</v>
       </c>
       <c r="E76">
-        <v>1.000087976455688</v>
+        <v>1.000133633613586</v>
       </c>
       <c r="F76">
-        <v>14044672</v>
+        <v>117680128</v>
       </c>
       <c r="G76">
-        <v>1.000044436689249</v>
+        <v>1.000140573083688</v>
       </c>
       <c r="H76">
-        <v>1.000023996829987</v>
+        <v>1.000153851509094</v>
       </c>
       <c r="I76">
-        <v>1.00006321867307</v>
+        <v>1.000125326712926</v>
       </c>
       <c r="L76">
-        <v>52.30571029021931</v>
+        <v>49.44017326022218</v>
       </c>
       <c r="M76">
-        <v>51.13876866313142</v>
+        <v>50.02914555444659</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -3366,34 +3366,34 @@
         <v>89</v>
       </c>
       <c r="B77">
-        <v>1.00007963180542</v>
+        <v>1.000101566314697</v>
       </c>
       <c r="C77">
-        <v>1.000354409217834</v>
+        <v>1.000616669654846</v>
       </c>
       <c r="D77">
-        <v>0.9998108148574828</v>
+        <v>0.9999181628227234</v>
       </c>
       <c r="E77">
-        <v>1.000161647796631</v>
+        <v>1.000264525413513</v>
       </c>
       <c r="F77">
-        <v>70747136</v>
+        <v>2923520</v>
       </c>
       <c r="G77">
-        <v>1.000055092244465</v>
+        <v>1.000151841477308</v>
       </c>
       <c r="H77">
-        <v>1.000032621622086</v>
+        <v>1.00014591217041</v>
       </c>
       <c r="I77">
-        <v>1.000069936116536</v>
+        <v>1.000128744045893</v>
       </c>
       <c r="L77">
-        <v>55.45096963527418</v>
+        <v>54.78552140382514</v>
       </c>
       <c r="M77">
-        <v>53.27163827585274</v>
+        <v>53.31721511108868</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -3401,34 +3401,34 @@
         <v>90</v>
       </c>
       <c r="B78">
-        <v>1.000106573104858</v>
+        <v>1.000168323516846</v>
       </c>
       <c r="C78">
-        <v>1.000722289085388</v>
+        <v>1.000667572021484</v>
       </c>
       <c r="D78">
-        <v>0.9998751878738404</v>
+        <v>0.9998526573181152</v>
       </c>
       <c r="E78">
-        <v>1.000187754631042</v>
+        <v>1.000147342681885</v>
       </c>
       <c r="F78">
-        <v>285603328</v>
+        <v>52241408</v>
       </c>
       <c r="G78">
-        <v>1.000067152461427</v>
+        <v>1.000151432495906</v>
       </c>
       <c r="H78">
-        <v>1.000038075447083</v>
+        <v>1.000145244598389</v>
       </c>
       <c r="I78">
-        <v>1.000065370400747</v>
+        <v>1.000125263134638</v>
       </c>
       <c r="L78">
-        <v>56.59218129641561</v>
+        <v>49.51327419640808</v>
       </c>
       <c r="M78">
-        <v>54.03731529206875</v>
+        <v>50.13657353491244</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3436,34 +3436,34 @@
         <v>91</v>
       </c>
       <c r="B79">
-        <v>1.000195741653442</v>
+        <v>1.000164747238159</v>
       </c>
       <c r="C79">
-        <v>1.000400066375732</v>
+        <v>1.000931859016418</v>
       </c>
       <c r="D79">
-        <v>0.9999761581420898</v>
+        <v>0.9998815655708312</v>
       </c>
       <c r="E79">
-        <v>1.000150442123413</v>
+        <v>1.000214457511902</v>
       </c>
       <c r="F79">
-        <v>52035072</v>
+        <v>413588480</v>
       </c>
       <c r="G79">
-        <v>1.00007472424888</v>
+        <v>1.000157162042815</v>
       </c>
       <c r="H79">
-        <v>1.000049775838852</v>
+        <v>1.000146627426147</v>
       </c>
       <c r="I79">
-        <v>1.000068275133769</v>
+        <v>1.000143120686213</v>
       </c>
       <c r="L79">
-        <v>54.35342111110559</v>
+        <v>52.46100207362532</v>
       </c>
       <c r="M79">
-        <v>52.70800448354292</v>
+        <v>51.90617769010863</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -3471,34 +3471,34 @@
         <v>92</v>
       </c>
       <c r="B80">
-        <v>1.000038981437683</v>
+        <v>1.000308871269226</v>
       </c>
       <c r="C80">
-        <v>1.000402927398682</v>
+        <v>1.000651597976685</v>
       </c>
       <c r="D80">
-        <v>0.9995476603507996</v>
+        <v>0.9999633431434632</v>
       </c>
       <c r="E80">
-        <v>0.9998607635498048</v>
+        <v>1.000148057937622</v>
       </c>
       <c r="F80">
-        <v>1572263424</v>
+        <v>212093440</v>
       </c>
       <c r="G80">
-        <v>1.000055273276237</v>
+        <v>1.000156334396888</v>
       </c>
       <c r="H80">
-        <v>1.000038504600525</v>
+        <v>1.000156098604202</v>
       </c>
       <c r="I80">
-        <v>1.000060021877289</v>
+        <v>1.000145524740219</v>
       </c>
       <c r="L80">
-        <v>40.39602911351551</v>
+        <v>49.25987572020416</v>
       </c>
       <c r="M80">
-        <v>43.71663032221241</v>
+        <v>50.01502756007299</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -3506,34 +3506,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>1.000030755996704</v>
+        <v>1.000212788581848</v>
       </c>
       <c r="C81">
-        <v>1.000304698944092</v>
+        <v>1.000509738922119</v>
       </c>
       <c r="D81">
-        <v>0.9995364546775818</v>
+        <v>0.9999904036521912</v>
       </c>
       <c r="E81">
-        <v>1.000234246253967</v>
+        <v>1.000144004821777</v>
       </c>
       <c r="F81">
-        <v>15822336</v>
+        <v>376632832</v>
       </c>
       <c r="G81">
-        <v>1.000071543546939</v>
+        <v>1.000155213526423</v>
       </c>
       <c r="H81">
-        <v>1.000047099590301</v>
+        <v>1.000158768892288</v>
       </c>
       <c r="I81">
-        <v>1.000065275033315</v>
+        <v>1.000150547424952</v>
       </c>
       <c r="L81">
-        <v>56.57155243056096</v>
+        <v>49.05432463214653</v>
       </c>
       <c r="M81">
-        <v>54.49488652355794</v>
+        <v>49.89552506848058</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -3541,34 +3541,34 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>1.000165700912476</v>
+        <v>1.000185251235962</v>
       </c>
       <c r="C82">
-        <v>1.000466465950012</v>
+        <v>1.000566005706787</v>
       </c>
       <c r="D82">
-        <v>0.9999379515647888</v>
+        <v>0.9999589920043944</v>
       </c>
       <c r="E82">
-        <v>1.000049114227295</v>
+        <v>1.000210046768188</v>
       </c>
       <c r="F82">
-        <v>74973696</v>
+        <v>49225728</v>
       </c>
       <c r="G82">
-        <v>1.000069504517881</v>
+        <v>1.000160198366584</v>
       </c>
       <c r="H82">
-        <v>1.0000463783741</v>
+        <v>1.000164037942886</v>
       </c>
       <c r="I82">
-        <v>1.00005609591802</v>
+        <v>1.000152391195297</v>
       </c>
       <c r="L82">
-        <v>49.13550496818321</v>
+        <v>52.67430982832089</v>
       </c>
       <c r="M82">
-        <v>49.4407263769002</v>
+        <v>51.91171422519682</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3576,34 +3576,34 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>1.000373125076294</v>
+        <v>1.000281572341919</v>
       </c>
       <c r="C83">
-        <v>1.000521540641785</v>
+        <v>1.000712871551514</v>
       </c>
       <c r="D83">
-        <v>0.9999964237213136</v>
+        <v>0.9999629259109496</v>
       </c>
       <c r="E83">
-        <v>1.000214457511902</v>
+        <v>1.000218391418457</v>
       </c>
       <c r="F83">
-        <v>288303104</v>
+        <v>107270144</v>
       </c>
       <c r="G83">
-        <v>1.000082682062792</v>
+        <v>1.000165488644027</v>
       </c>
       <c r="H83">
-        <v>1.000053018331528</v>
+        <v>1.000170570611954</v>
       </c>
       <c r="I83">
-        <v>1.000052833557129</v>
+        <v>1.000157791376114</v>
       </c>
       <c r="L83">
-        <v>55.06944758634094</v>
+        <v>53.14754025976535</v>
       </c>
       <c r="M83">
-        <v>53.58143477822791</v>
+        <v>52.17359010520039</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -3611,34 +3611,34 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>1.000167965888977</v>
+        <v>1.000185370445252</v>
       </c>
       <c r="C84">
-        <v>1.000693321228027</v>
+        <v>1.000654339790344</v>
       </c>
       <c r="D84">
-        <v>0.9998124241828918</v>
+        <v>0.9999656081199646</v>
       </c>
       <c r="E84">
-        <v>1.00025463104248</v>
+        <v>1.000210523605347</v>
       </c>
       <c r="F84">
-        <v>579552256</v>
+        <v>92015616</v>
       </c>
       <c r="G84">
-        <v>1.000098313788218</v>
+        <v>1.000169582731419</v>
       </c>
       <c r="H84">
-        <v>1.000065866112709</v>
+        <v>1.000179708003998</v>
       </c>
       <c r="I84">
-        <v>1.000057025750478</v>
+        <v>1.000159678856532</v>
       </c>
       <c r="L84">
-        <v>56.45794008661039</v>
+        <v>52.58974452721561</v>
       </c>
       <c r="M84">
-        <v>54.55529194046228</v>
+        <v>51.88668208858544</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -3646,34 +3646,34 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>1.000061511993408</v>
+        <v>1.000272512435913</v>
       </c>
       <c r="C85">
-        <v>1.000710129737854</v>
+        <v>1.00068199634552</v>
       </c>
       <c r="D85">
-        <v>0.9999380111694336</v>
+        <v>0.9998071193695068</v>
       </c>
       <c r="E85">
-        <v>1.000043630599976</v>
+        <v>1.00016462802887</v>
       </c>
       <c r="F85">
-        <v>758153216</v>
+        <v>122160640</v>
       </c>
       <c r="G85">
-        <v>1.000093342589287</v>
+        <v>1.000169132303915</v>
       </c>
       <c r="H85">
-        <v>1.000071775913238</v>
+        <v>1.000178599357605</v>
       </c>
       <c r="I85">
-        <v>1.000053747495016</v>
+        <v>1.000168263912201</v>
       </c>
       <c r="L85">
-        <v>47.7405736637818</v>
+        <v>49.2010260262791</v>
       </c>
       <c r="M85">
-        <v>48.76810538088195</v>
+        <v>50.15407663179207</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -3681,34 +3681,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>1.000235676765442</v>
+        <v>1.000212669372559</v>
       </c>
       <c r="C86">
-        <v>1.00050163269043</v>
+        <v>1.000783443450928</v>
       </c>
       <c r="D86">
-        <v>0.9994282722473145</v>
+        <v>0.9998496770858764</v>
       </c>
       <c r="E86">
-        <v>0.9997729659080504</v>
+        <v>1.000231742858887</v>
       </c>
       <c r="F86">
-        <v>1529282560</v>
+        <v>104261120</v>
       </c>
       <c r="G86">
-        <v>1.000064217436447</v>
+        <v>1.000174824172549</v>
       </c>
       <c r="H86">
-        <v>1.000058606266975</v>
+        <v>1.000179874897003</v>
       </c>
       <c r="I86">
-        <v>1.000046986341476</v>
+        <v>1.000167691707611</v>
       </c>
       <c r="L86">
-        <v>39.04126212142091</v>
+        <v>54.06993525493396</v>
       </c>
       <c r="M86">
-        <v>42.53493128128925</v>
+        <v>52.6443549249737</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -3716,34 +3716,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>0.9999533295631408</v>
+        <v>1.000250101089478</v>
       </c>
       <c r="C87">
-        <v>1.000341892242432</v>
+        <v>1.000956416130066</v>
       </c>
       <c r="D87">
-        <v>0.999377429485321</v>
+        <v>0.9999014139175416</v>
       </c>
       <c r="E87">
-        <v>0.9998710751533508</v>
+        <v>1.000200390815735</v>
       </c>
       <c r="F87">
-        <v>198664192</v>
+        <v>104064000</v>
       </c>
       <c r="G87">
-        <v>1.000046659047075</v>
+        <v>1.000177148412838</v>
       </c>
       <c r="H87">
-        <v>1.000056073069572</v>
+        <v>1.000171947479248</v>
       </c>
       <c r="I87">
-        <v>1.0000430504481</v>
+        <v>1.000160260995229</v>
       </c>
       <c r="L87">
-        <v>43.25760358989087</v>
+        <v>51.47701040286621</v>
       </c>
       <c r="M87">
-        <v>45.26576608906425</v>
+        <v>51.35366558488804</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -3751,34 +3751,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>1.000075578689575</v>
+        <v>1.000183343887329</v>
       </c>
       <c r="C88">
-        <v>1.00023889541626</v>
+        <v>1.000606417655945</v>
       </c>
       <c r="D88">
-        <v>0.9995166659355164</v>
+        <v>0.9999303817749025</v>
       </c>
       <c r="E88">
-        <v>1.0001620054245</v>
+        <v>1.000081062316894</v>
       </c>
       <c r="F88">
-        <v>234908672</v>
+        <v>33988096</v>
       </c>
       <c r="G88">
-        <v>1.000057145081386</v>
+        <v>1.000168413313207</v>
       </c>
       <c r="H88">
-        <v>1.000061818957329</v>
+        <v>1.000173962116242</v>
       </c>
       <c r="I88">
-        <v>1.000045828024546</v>
+        <v>1.000157606601715</v>
       </c>
       <c r="L88">
-        <v>53.89587552549919</v>
+        <v>42.70760496932135</v>
       </c>
       <c r="M88">
-        <v>52.47771258605459</v>
+        <v>46.66426476875218</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -3786,34 +3786,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>0.9999121427536012</v>
+        <v>1.000074028968811</v>
       </c>
       <c r="C89">
-        <v>1.00027859210968</v>
+        <v>1.000574588775635</v>
       </c>
       <c r="D89">
-        <v>0.9994406700134276</v>
+        <v>0.9998235702514648</v>
       </c>
       <c r="E89">
-        <v>1.000251770019531</v>
+        <v>1.000173330307007</v>
       </c>
       <c r="F89">
-        <v>260891648</v>
+        <v>121360384</v>
       </c>
       <c r="G89">
-        <v>1.000074838257581</v>
+        <v>1.000168860312643</v>
       </c>
       <c r="H89">
-        <v>1.000081160664558</v>
+        <v>1.000177818536758</v>
       </c>
       <c r="I89">
-        <v>1.000057005882263</v>
+        <v>1.000157157580058</v>
       </c>
       <c r="L89">
-        <v>56.71289982942022</v>
+        <v>50.10195148942108</v>
       </c>
       <c r="M89">
-        <v>54.47105490827378</v>
+        <v>50.43327807403936</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -3821,34 +3821,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>0.9998606443405152</v>
+        <v>1.000160098075867</v>
       </c>
       <c r="C90">
-        <v>1.000441789627075</v>
+        <v>1.000622034072876</v>
       </c>
       <c r="D90">
-        <v>0.9993795156478882</v>
+        <v>0.9999029040336608</v>
       </c>
       <c r="E90">
-        <v>0.9996787309646606</v>
+        <v>1.000199556350708</v>
       </c>
       <c r="F90">
-        <v>1062080512</v>
+        <v>31739392</v>
       </c>
       <c r="G90">
-        <v>1.000038828503679</v>
+        <v>1.000171650861558</v>
       </c>
       <c r="H90">
-        <v>1.000065413117409</v>
+        <v>1.000172555446625</v>
       </c>
       <c r="I90">
-        <v>1.00004342397054</v>
+        <v>1.00016518831253</v>
       </c>
       <c r="L90">
-        <v>39.4163664300944</v>
+        <v>52.0796366997624</v>
       </c>
       <c r="M90">
-        <v>42.27908329818071</v>
+        <v>51.48275269453968</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -3856,34 +3856,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>0.9998215436935424</v>
+        <v>1.000218391418457</v>
       </c>
       <c r="C91">
-        <v>1.000209212303162</v>
+        <v>1.001233100891113</v>
       </c>
       <c r="D91">
-        <v>0.9994840025901794</v>
+        <v>0.9999027252197266</v>
       </c>
       <c r="E91">
-        <v>1.000075936317444</v>
+        <v>1.000379681587219</v>
       </c>
       <c r="F91">
-        <v>732790784</v>
+        <v>9841664</v>
       </c>
       <c r="G91">
-        <v>1.000042201941294</v>
+        <v>1.000190562745709</v>
       </c>
       <c r="H91">
-        <v>1.000061729550362</v>
+        <v>1.000184464454651</v>
       </c>
       <c r="I91">
-        <v>1.000043876965841</v>
+        <v>1.000174824396769</v>
       </c>
       <c r="L91">
-        <v>51.056449503659</v>
+        <v>63.31439228369804</v>
       </c>
       <c r="M91">
-        <v>50.54243831961394</v>
+        <v>58.05205044427095</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -3891,34 +3891,34 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>1.000123620033264</v>
+        <v>1.000211596488953</v>
       </c>
       <c r="C92">
-        <v>1.000329613685608</v>
+        <v>1.000672221183777</v>
       </c>
       <c r="D92">
-        <v>0.9995219707489014</v>
+        <v>0.999698281288147</v>
       </c>
       <c r="E92">
-        <v>0.9999933242797852</v>
+        <v>1.000073313713074</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>848532992</v>
       </c>
       <c r="G92">
-        <v>1.000037758517521</v>
+        <v>1.000179903742742</v>
       </c>
       <c r="H92">
-        <v>1.000049105286598</v>
+        <v>1.000181573629379</v>
       </c>
       <c r="I92">
-        <v>1.000041536490123</v>
+        <v>1.000173779328664</v>
       </c>
       <c r="L92">
-        <v>48.85993337040071</v>
+        <v>43.70712876793625</v>
       </c>
       <c r="M92">
-        <v>48.97212937133278</v>
+        <v>46.51554554006347</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -3926,34 +3926,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>1.000196933746338</v>
+        <v>1.000177264213562</v>
       </c>
       <c r="C93">
-        <v>1.00025475025177</v>
+        <v>1.000788807868958</v>
       </c>
       <c r="D93">
-        <v>0.9996117353439332</v>
+        <v>0.999907374382019</v>
       </c>
       <c r="E93">
-        <v>1.000154733657837</v>
+        <v>1.000210762023926</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>387729408</v>
       </c>
       <c r="G93">
-        <v>1.000048392621186</v>
+        <v>1.000182709041032</v>
       </c>
       <c r="H93">
-        <v>1.000061973929405</v>
+        <v>1.000190329551697</v>
       </c>
       <c r="I93">
-        <v>1.000043972333272</v>
+        <v>1.000177880128225</v>
       </c>
       <c r="L93">
-        <v>53.27810133545238</v>
+        <v>51.31644348904999</v>
       </c>
       <c r="M93">
-        <v>52.10328569797343</v>
+        <v>51.20096810412341</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -3961,34 +3961,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>1.000108480453491</v>
+        <v>1.000390291213989</v>
       </c>
       <c r="C94">
-        <v>1.000249624252319</v>
+        <v>1.000751256942749</v>
       </c>
       <c r="D94">
-        <v>0.9995754957199096</v>
+        <v>0.9999457001686096</v>
       </c>
       <c r="E94">
-        <v>1.000056385993958</v>
+        <v>1.000118970870972</v>
       </c>
       <c r="F94">
-        <v>6487040</v>
+        <v>149564416</v>
       </c>
       <c r="G94">
-        <v>1.000049119291438</v>
+        <v>1.000176914661935</v>
       </c>
       <c r="H94">
-        <v>1.000061985850334</v>
+        <v>1.000191813707352</v>
       </c>
       <c r="I94">
-        <v>1.000045929352442</v>
+        <v>1.000180919965108</v>
       </c>
       <c r="L94">
-        <v>50.29937031762031</v>
+        <v>46.58541013335114</v>
       </c>
       <c r="M94">
-        <v>50.08659729501372</v>
+        <v>48.16630406345184</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -3996,34 +3996,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>1.000054240226746</v>
+        <v>1.000203251838684</v>
       </c>
       <c r="C95">
-        <v>1.000322222709656</v>
+        <v>1.000503659248352</v>
       </c>
       <c r="D95">
-        <v>0.9994910955429076</v>
+        <v>0.9999396800994872</v>
       </c>
       <c r="E95">
-        <v>1.00015389919281</v>
+        <v>0.9999468922615052</v>
       </c>
       <c r="F95">
-        <v>89381888</v>
+        <v>10982912</v>
       </c>
       <c r="G95">
-        <v>1.000058644737017</v>
+        <v>1.000156003534623</v>
       </c>
       <c r="H95">
-        <v>1.000070774555206</v>
+        <v>1.000173565745354</v>
       </c>
       <c r="I95">
-        <v>1.000053544839223</v>
+        <v>1.000172923008601</v>
       </c>
       <c r="L95">
-        <v>53.2169514664302</v>
+        <v>39.00199445712924</v>
       </c>
       <c r="M95">
-        <v>52.06760803535105</v>
+        <v>43.01874933757918</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4031,594 +4031,597 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>1.000119686126709</v>
+        <v>1.000123262405396</v>
       </c>
       <c r="C96">
-        <v>1.000374674797058</v>
+        <v>1.000515460968018</v>
       </c>
       <c r="D96">
-        <v>0.9997955560684204</v>
+        <v>0.999872386455536</v>
       </c>
       <c r="E96">
-        <v>0.9999070763587952</v>
+        <v>1.000196814537048</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>27468288</v>
       </c>
       <c r="G96">
-        <v>1.000044865793542</v>
+        <v>1.000159713625753</v>
       </c>
       <c r="H96">
-        <v>1.000061729550362</v>
+        <v>1.000176724791527</v>
       </c>
       <c r="I96">
-        <v>1.000049235423406</v>
+        <v>1.000172609090805</v>
       </c>
       <c r="L96">
-        <v>45.59520227286983</v>
+        <v>51.81747964913635</v>
       </c>
       <c r="M96">
-        <v>46.98448377377703</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>51.17937966336755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>0.999930500984192</v>
+        <v>1.000171422958374</v>
       </c>
       <c r="C97">
-        <v>1.000801205635071</v>
+        <v>1.000699758529663</v>
       </c>
       <c r="D97">
-        <v>0.9998310804367064</v>
+        <v>0.99992173910141</v>
       </c>
       <c r="E97">
-        <v>1.000248908996582</v>
+        <v>1.000139355659485</v>
       </c>
       <c r="F97">
-        <v>272909824</v>
+        <v>234926592</v>
       </c>
       <c r="G97">
-        <v>1.000063415175637</v>
+        <v>1.000157862901546</v>
       </c>
       <c r="H97">
-        <v>1.000066092610359</v>
+        <v>1.000170466303825</v>
       </c>
       <c r="I97">
-        <v>1.000060141086578</v>
+        <v>1.000165289640427</v>
       </c>
       <c r="L97">
-        <v>55.52053230308147</v>
+        <v>49.1468142274193</v>
       </c>
       <c r="M97">
-        <v>53.72268705568266</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>49.42674813104437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>1.000152945518494</v>
+        <v>1.000062346458435</v>
       </c>
       <c r="C98">
-        <v>1.000689387321472</v>
+        <v>1.000803709030151</v>
       </c>
       <c r="D98">
-        <v>0.9997045993804932</v>
+        <v>0.9996938109397888</v>
       </c>
       <c r="E98">
-        <v>1.000423312187195</v>
+        <v>1.000178694725037</v>
       </c>
       <c r="F98">
-        <v>1164253184</v>
+        <v>58785792</v>
       </c>
       <c r="G98">
-        <v>1.000096133085778</v>
+        <v>1.000159756703682</v>
       </c>
       <c r="H98">
-        <v>1.000077870488167</v>
+        <v>1.000172033905983</v>
       </c>
       <c r="I98">
-        <v>1.000072681903839</v>
+        <v>1.00016988714536</v>
       </c>
       <c r="L98">
-        <v>59.73663557729752</v>
+        <v>51.08847701752888</v>
       </c>
       <c r="M98">
-        <v>56.74346255205547</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>50.67223352769081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>1.000476837158203</v>
+        <v>1.000170350074768</v>
       </c>
       <c r="C99">
-        <v>1.000552415847778</v>
+        <v>1.000508546829224</v>
       </c>
       <c r="D99">
-        <v>0.9998528361320496</v>
+        <v>0.9998958110809326</v>
       </c>
       <c r="E99">
-        <v>1.000160694122314</v>
+        <v>1.000149488449097</v>
       </c>
       <c r="F99">
-        <v>216827904</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>1.000102002270918</v>
+        <v>1.000158823225992</v>
       </c>
       <c r="H99">
-        <v>1.000078383088112</v>
+        <v>1.000168785452843</v>
       </c>
       <c r="I99">
-        <v>1.000082540512085</v>
+        <v>1.000171663363775</v>
       </c>
       <c r="L99">
-        <v>51.47164437435021</v>
+        <v>49.50959498238717</v>
       </c>
       <c r="M99">
-        <v>51.31191718010361</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>49.69374372536662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>1.00015914440155</v>
+        <v>1.000241994857788</v>
       </c>
       <c r="C100">
-        <v>1.000415802001953</v>
+        <v>1.000528573989868</v>
       </c>
       <c r="D100">
-        <v>0.9998323321342468</v>
+        <v>0.9999320507049561</v>
       </c>
       <c r="E100">
-        <v>1.000186800956726</v>
+        <v>1.000092029571533</v>
       </c>
       <c r="F100">
-        <v>79159296</v>
+        <v>47936000</v>
       </c>
       <c r="G100">
-        <v>1.000109711242355</v>
+        <v>1.000152751075587</v>
       </c>
       <c r="H100">
-        <v>1.000094684958458</v>
+        <v>1.000165984034538</v>
       </c>
       <c r="I100">
-        <v>1.000088977813721</v>
+        <v>1.000164570411046</v>
       </c>
       <c r="L100">
-        <v>52.21109780931767</v>
+        <v>46.33991486994798</v>
       </c>
       <c r="M100">
-        <v>51.80579182297718</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>47.74057596166784</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>1.000029325485229</v>
+        <v>1.0001380443573</v>
       </c>
       <c r="C101">
-        <v>1.000269293785095</v>
+        <v>1.000279664993286</v>
       </c>
       <c r="D101">
-        <v>0.999800443649292</v>
+        <v>0.9998974800109864</v>
       </c>
       <c r="E101">
-        <v>0.999958634376526</v>
+        <v>1.000120520591736</v>
       </c>
       <c r="F101">
-        <v>4637696</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1.000095976981825</v>
+        <v>1.0001498210316</v>
       </c>
       <c r="H101">
-        <v>1.000080904364586</v>
+        <v>1.000164809823036</v>
       </c>
       <c r="I101">
-        <v>1.000082612037659</v>
+        <v>1.000163871049881</v>
       </c>
       <c r="L101">
-        <v>45.40811913727205</v>
+        <v>48.19021112197579</v>
       </c>
       <c r="M101">
-        <v>47.29083559140857</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>48.81485551873894</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>0.9999402761459352</v>
+        <v>1.000105738639832</v>
       </c>
       <c r="C102">
-        <v>1.00045907497406</v>
+        <v>1.0005042552948</v>
       </c>
       <c r="D102">
-        <v>0.9997495412826538</v>
+        <v>0.9998947978019714</v>
       </c>
       <c r="E102">
-        <v>1.000090599060059</v>
+        <v>0.99992173910141</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1.000095488079846</v>
+        <v>1.000129086310674</v>
       </c>
       <c r="H102">
-        <v>1.000082978606224</v>
+        <v>1.000150394439697</v>
       </c>
       <c r="I102">
-        <v>1.000077438354492</v>
+        <v>1.000156891345978</v>
       </c>
       <c r="L102">
-        <v>49.67470802213179</v>
+        <v>37.92559375971169</v>
       </c>
       <c r="M102">
-        <v>50.00473931304104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>42.28385273224939</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>1.000128030776978</v>
+        <v>0.9999856352806092</v>
       </c>
       <c r="C103">
-        <v>1.000556468963623</v>
+        <v>1.000455975532532</v>
       </c>
       <c r="D103">
-        <v>0.9998703598976136</v>
+        <v>0.99977707862854</v>
       </c>
       <c r="E103">
-        <v>1.000104665756226</v>
+        <v>1.000069260597229</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1.000096322414062</v>
+        <v>1.000123647609452</v>
       </c>
       <c r="H103">
-        <v>1.00007748901844</v>
+        <v>1.000142937898636</v>
       </c>
       <c r="I103">
-        <v>1.000084348519643</v>
+        <v>1.0001580119133</v>
       </c>
       <c r="L103">
-        <v>50.14198526500775</v>
+        <v>47.29785003827369</v>
       </c>
       <c r="M103">
-        <v>50.29850214898558</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>47.859173051263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>1.000286340713501</v>
+        <v>1.000067710876465</v>
       </c>
       <c r="C104">
-        <v>1.000320672988892</v>
+        <v>1.001578688621521</v>
       </c>
       <c r="D104">
-        <v>0.9999681115150452</v>
+        <v>0.9999827146530152</v>
       </c>
       <c r="E104">
-        <v>1.000087738037109</v>
+        <v>1.001226425170898</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1.000095542016157</v>
+        <v>1.000223900115038</v>
       </c>
       <c r="H104">
-        <v>1.000069144368172</v>
+        <v>1.000193732976913</v>
       </c>
       <c r="I104">
-        <v>1.000085401535034</v>
+        <v>1.000195916493734</v>
       </c>
       <c r="L104">
-        <v>49.51950798024478</v>
+        <v>77.40400806867409</v>
       </c>
       <c r="M104">
-        <v>49.9183831772589</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>71.28829401249976</v>
+      </c>
+      <c r="O104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>1.000187516212463</v>
+        <v>1.001326084136963</v>
       </c>
       <c r="C105">
-        <v>1.00026535987854</v>
+        <v>1.001625180244446</v>
       </c>
       <c r="D105">
-        <v>0.999937891960144</v>
+        <v>0.9998029470443726</v>
       </c>
       <c r="E105">
-        <v>1.000027775764465</v>
+        <v>1.000038981437683</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105">
-        <v>1.000089381447822</v>
+        <v>1.000207089326187</v>
       </c>
       <c r="H105">
-        <v>1.000068351626396</v>
+        <v>1.000187450647354</v>
       </c>
       <c r="I105">
-        <v>1.000087056557337</v>
+        <v>1.000186820824941</v>
       </c>
       <c r="L105">
-        <v>47.18519082434432</v>
+        <v>46.6437106617816</v>
       </c>
       <c r="M105">
-        <v>48.51961368416894</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>47.63444635042927</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>1.000223636627197</v>
+        <v>1.000105023384094</v>
       </c>
       <c r="C106">
-        <v>1.000532865524292</v>
+        <v>1.000473141670227</v>
       </c>
       <c r="D106">
-        <v>0.9998867511749268</v>
+        <v>0.999835968017578</v>
       </c>
       <c r="E106">
-        <v>1.000186800956726</v>
+        <v>0.9999691843986512</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1.000098237766813</v>
+        <v>1.000185461605502</v>
       </c>
       <c r="H106">
-        <v>1.00008904337883</v>
+        <v>1.000174322724342</v>
       </c>
       <c r="I106">
-        <v>1.000090350707372</v>
+        <v>1.000181339184443</v>
       </c>
       <c r="L106">
-        <v>53.69741241484304</v>
+        <v>45.44936139378198</v>
       </c>
       <c r="M106">
-        <v>52.33434321129552</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>46.65453656150532</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>1.00019383430481</v>
+        <v>0.9999802708625792</v>
       </c>
       <c r="C107">
-        <v>1.000569820404053</v>
+        <v>1.000687837600708</v>
       </c>
       <c r="D107">
-        <v>1.000028610229492</v>
+        <v>0.9998227953910828</v>
       </c>
       <c r="E107">
-        <v>1.000206232070923</v>
+        <v>1.000002861022949</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>1.000108055430823</v>
+        <v>1.000168861552543</v>
       </c>
       <c r="H107">
-        <v>1.000105801224709</v>
+        <v>1.000164446234703</v>
       </c>
       <c r="I107">
-        <v>1.000091836849848</v>
+        <v>1.000172617038091</v>
       </c>
       <c r="L107">
-        <v>54.46913926841331</v>
+        <v>46.19716489017901</v>
       </c>
       <c r="M107">
-        <v>52.7946313729828</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>47.21872102202994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>1.000231623649597</v>
+        <v>0.9998538494110109</v>
       </c>
       <c r="C108">
-        <v>1.000519156455994</v>
+        <v>1.000919342041016</v>
       </c>
       <c r="D108">
-        <v>0.9999156594276428</v>
+        <v>0.9998362064361572</v>
       </c>
       <c r="E108">
-        <v>1.000358939170837</v>
+        <v>1.000030398368835</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>236288</v>
       </c>
       <c r="G108">
-        <v>1.000130863043552</v>
+        <v>1.000156273990387</v>
       </c>
       <c r="H108">
-        <v>1.000115647912025</v>
+        <v>1.0001619130373</v>
       </c>
       <c r="I108">
-        <v>1.000097543001175</v>
+        <v>1.000168718894323</v>
       </c>
       <c r="L108">
-        <v>60.31676381229725</v>
+        <v>46.8671982405371</v>
       </c>
       <c r="M108">
-        <v>56.36114417773442</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>47.70575108361393</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>1.000358581542969</v>
+        <v>1.000061988830566</v>
       </c>
       <c r="C109">
-        <v>1.000518202781677</v>
+        <v>1.000451922416687</v>
       </c>
       <c r="D109">
-        <v>0.999896764755249</v>
+        <v>0.999868392944336</v>
       </c>
       <c r="E109">
-        <v>1.000040769577026</v>
+        <v>1.000075578689575</v>
       </c>
       <c r="F109">
-        <v>45452288</v>
+        <v>2627584</v>
       </c>
       <c r="G109">
-        <v>1.000122672728413</v>
+        <v>1.00014893805395</v>
       </c>
       <c r="H109">
-        <v>1.0001050978899</v>
+        <v>1.000157025456428</v>
       </c>
       <c r="I109">
-        <v>1.000093887249629</v>
+        <v>1.000164089600245</v>
       </c>
       <c r="L109">
-        <v>46.36038817615831</v>
+        <v>48.06108701134114</v>
       </c>
       <c r="M109">
-        <v>48.19143848751615</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>48.54466648929542</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>1.00010359287262</v>
+        <v>1.000070095062256</v>
       </c>
       <c r="C110">
-        <v>1.00050151348114</v>
+        <v>1.000423669815064</v>
       </c>
       <c r="D110">
-        <v>0.999917209148407</v>
+        <v>0.9999123811721802</v>
       </c>
       <c r="E110">
-        <v>1.000096201896668</v>
+        <v>1.000118255615234</v>
       </c>
       <c r="F110">
-        <v>720742144</v>
+        <v>21842944</v>
       </c>
       <c r="G110">
-        <v>1.000120266289163</v>
+        <v>1.000146148741339</v>
       </c>
       <c r="H110">
-        <v>1.000125971436501</v>
+        <v>1.000152960419655</v>
       </c>
       <c r="I110">
-        <v>1.000101735194524</v>
+        <v>1.000163096189499</v>
       </c>
       <c r="L110">
-        <v>48.68748688293703</v>
+        <v>49.27236031242112</v>
       </c>
       <c r="M110">
-        <v>49.56315259688554</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>49.37088154688605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>1.000155329704285</v>
+        <v>1.000047445297241</v>
       </c>
       <c r="C111">
-        <v>1.000488877296448</v>
+        <v>1.000469207763672</v>
       </c>
       <c r="D111">
-        <v>0.99985009431839</v>
+        <v>0.999857783317566</v>
       </c>
       <c r="E111">
-        <v>1.000304818153381</v>
+        <v>0.9999536275863647</v>
       </c>
       <c r="F111">
-        <v>319741952</v>
+        <v>32930048</v>
       </c>
       <c r="G111">
-        <v>1.000137043731365</v>
+        <v>1.00012864681816</v>
       </c>
       <c r="H111">
-        <v>1.000137415528297</v>
+        <v>1.000131657719612</v>
       </c>
       <c r="I111">
-        <v>1.000104087591171</v>
+        <v>1.000156750281652</v>
       </c>
       <c r="L111">
-        <v>56.65008887453197</v>
+        <v>44.74394040752482</v>
       </c>
       <c r="M111">
-        <v>54.45092944913436</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>46.28354043483524</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>1.000196814537048</v>
+        <v>1.000020742416382</v>
       </c>
       <c r="C112">
-        <v>1.000507235527039</v>
+        <v>1.000428199768066</v>
       </c>
       <c r="D112">
-        <v>0.9999325275421144</v>
+        <v>0.999824047088623</v>
       </c>
       <c r="E112">
-        <v>1.000141501426697</v>
+        <v>0.9999555349349976</v>
       </c>
       <c r="F112">
-        <v>77671680</v>
+        <v>442192896</v>
       </c>
       <c r="G112">
-        <v>1.000137448976395</v>
+        <v>1.000112909374236</v>
       </c>
       <c r="H112">
-        <v>1.000144824385643</v>
+        <v>1.000125768780708</v>
       </c>
       <c r="I112">
-        <v>1.000107167164485</v>
+        <v>1.000148266553879</v>
       </c>
       <c r="L112">
-        <v>49.83873044441645</v>
+        <v>44.81005268674824</v>
       </c>
       <c r="M112">
-        <v>50.33821593042218</v>
+        <v>46.32541915330646</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -4626,34 +4629,34 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>1.000198483467102</v>
+        <v>0.9999650120735168</v>
       </c>
       <c r="C113">
-        <v>1.000850081443787</v>
+        <v>1.000686883926392</v>
       </c>
       <c r="D113">
-        <v>0.9998947381973268</v>
+        <v>0.999805748462677</v>
       </c>
       <c r="E113">
-        <v>1.000131130218506</v>
+        <v>0.9999972581863404</v>
       </c>
       <c r="F113">
-        <v>266702592</v>
+        <v>576077312</v>
       </c>
       <c r="G113">
-        <v>1.000136874543859</v>
+        <v>1.000102395629882</v>
       </c>
       <c r="H113">
-        <v>1.000143644213676</v>
+        <v>1.000115093588829</v>
       </c>
       <c r="I113">
-        <v>1.000104389588038</v>
+        <v>1.000140895446141</v>
       </c>
       <c r="L113">
-        <v>49.41427047839453</v>
+        <v>46.38860828886959</v>
       </c>
       <c r="M113">
-        <v>50.07953357572096</v>
+        <v>47.29343717575484</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -4661,34 +4664,34 @@
         <v>126</v>
       </c>
       <c r="B114">
-        <v>1.000249981880188</v>
+        <v>0.9999626874923706</v>
       </c>
       <c r="C114">
-        <v>1.000540971755981</v>
+        <v>1.000696301460266</v>
       </c>
       <c r="D114">
-        <v>0.9998461604118348</v>
+        <v>0.9998298287391664</v>
       </c>
       <c r="E114">
-        <v>1.000035643577576</v>
+        <v>0.9999762177467346</v>
       </c>
       <c r="F114">
-        <v>682180608</v>
+        <v>793703424</v>
       </c>
       <c r="G114">
-        <v>1.000127671728743</v>
+        <v>1.000090924913232</v>
       </c>
       <c r="H114">
-        <v>1.000142607092857</v>
+        <v>1.000107955932617</v>
       </c>
       <c r="I114">
-        <v>1.000097090005875</v>
+        <v>1.000133085250855</v>
       </c>
       <c r="L114">
-        <v>45.40861320021137</v>
+        <v>45.64789548455227</v>
       </c>
       <c r="M114">
-        <v>47.65155946745452</v>
+        <v>46.83472098683603</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -4696,34 +4699,34 @@
         <v>127</v>
       </c>
       <c r="B115">
-        <v>1.000061631202698</v>
+        <v>1.000033974647522</v>
       </c>
       <c r="C115">
-        <v>1.000573039054871</v>
+        <v>1.00068724155426</v>
       </c>
       <c r="D115">
-        <v>0.9999014735221864</v>
+        <v>0.9998584985733032</v>
       </c>
       <c r="E115">
-        <v>1.000089287757874</v>
+        <v>0.9999467134475708</v>
       </c>
       <c r="F115">
-        <v>348777472</v>
+        <v>866630400</v>
       </c>
       <c r="G115">
-        <v>1.000124182276845</v>
+        <v>1.00007781477999</v>
       </c>
       <c r="H115">
-        <v>1.000139376521111</v>
+        <v>1.000107946991921</v>
       </c>
       <c r="I115">
-        <v>1.000098611911138</v>
+        <v>1.000125821431478</v>
       </c>
       <c r="L115">
-        <v>48.06920875054541</v>
+        <v>44.52629526246133</v>
       </c>
       <c r="M115">
-        <v>49.14331115484374</v>
+        <v>46.15862059510507</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4731,34 +4734,34 @@
         <v>128</v>
       </c>
       <c r="B116">
-        <v>1.000125646591186</v>
+        <v>1.000009179115295</v>
       </c>
       <c r="C116">
-        <v>1.000547289848328</v>
+        <v>1.000955700874329</v>
       </c>
       <c r="D116">
-        <v>0.9999045133590698</v>
+        <v>0.999804675579071</v>
       </c>
       <c r="E116">
-        <v>1.000311851501465</v>
+        <v>1.000155925750732</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1327259648</v>
       </c>
       <c r="G116">
-        <v>1.000141243115447</v>
+        <v>1.00008491577733</v>
       </c>
       <c r="H116">
-        <v>1.000159615278244</v>
+        <v>1.000105902552605</v>
       </c>
       <c r="I116">
-        <v>1.000116574764252</v>
+        <v>1.000123294194539</v>
       </c>
       <c r="L116">
-        <v>57.69309200692273</v>
+        <v>53.61757843905157</v>
       </c>
       <c r="M116">
-        <v>54.88723558355936</v>
+        <v>51.50463454454594</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -4766,34 +4769,34 @@
         <v>129</v>
       </c>
       <c r="B117">
-        <v>1.000217914581299</v>
+        <v>1.000106573104858</v>
       </c>
       <c r="C117">
-        <v>1.000614166259766</v>
+        <v>1.000587582588196</v>
       </c>
       <c r="D117">
-        <v>0.9999008178710938</v>
+        <v>0.999785542488098</v>
       </c>
       <c r="E117">
-        <v>1.000133633613586</v>
+        <v>0.9999209642410278</v>
       </c>
       <c r="F117">
-        <v>117680128</v>
+        <v>846201856</v>
       </c>
       <c r="G117">
-        <v>1.000140551342551</v>
+        <v>1.000070011092212</v>
       </c>
       <c r="H117">
-        <v>1.000153851509094</v>
+        <v>1.000094982981682</v>
       </c>
       <c r="I117">
-        <v>1.000125326712926</v>
+        <v>1.000113979975382</v>
       </c>
       <c r="L117">
-        <v>49.43940429745823</v>
+        <v>44.419910612162</v>
       </c>
       <c r="M117">
-        <v>50.01587716919778</v>
+        <v>45.9825716043763</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -4801,34 +4804,34 @@
         <v>130</v>
       </c>
       <c r="B118">
-        <v>1.000101566314697</v>
+        <v>0.9999549388885498</v>
       </c>
       <c r="C118">
-        <v>1.000616669654846</v>
+        <v>1.000443339347839</v>
       </c>
       <c r="D118">
-        <v>0.9999181628227234</v>
+        <v>0.9997920989990234</v>
       </c>
       <c r="E118">
-        <v>1.000264525413513</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>2923520</v>
+        <v>58675712</v>
       </c>
       <c r="G118">
-        <v>1.000151821712638</v>
+        <v>1.000063646447465</v>
       </c>
       <c r="H118">
-        <v>1.00014591217041</v>
+        <v>1.00008604824543</v>
       </c>
       <c r="I118">
-        <v>1.000128744045893</v>
+        <v>1.000111277898153</v>
       </c>
       <c r="L118">
-        <v>54.78416694969978</v>
+        <v>47.80799290388224</v>
       </c>
       <c r="M118">
-        <v>53.29450793012888</v>
+        <v>48.00211105849149</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -4836,34 +4839,34 @@
         <v>131</v>
       </c>
       <c r="B119">
-        <v>1.000168323516846</v>
+        <v>1.000017166137695</v>
       </c>
       <c r="C119">
-        <v>1.000667572021484</v>
+        <v>1.000622630119324</v>
       </c>
       <c r="D119">
-        <v>0.9998526573181152</v>
+        <v>0.9998464584350586</v>
       </c>
       <c r="E119">
-        <v>1.000147342681885</v>
+        <v>0.9999824166297911</v>
       </c>
       <c r="F119">
-        <v>52241408</v>
+        <v>56782336</v>
       </c>
       <c r="G119">
-        <v>1.000151414528024</v>
+        <v>1.000056261918586</v>
       </c>
       <c r="H119">
-        <v>1.000145244598389</v>
+        <v>1.000077694654465</v>
       </c>
       <c r="I119">
-        <v>1.000125263134638</v>
+        <v>1.000104914108912</v>
       </c>
       <c r="L119">
-        <v>49.51264445008479</v>
+        <v>47.08955325182801</v>
       </c>
       <c r="M119">
-        <v>50.12459610896106</v>
+        <v>47.5759545525129</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -4871,34 +4874,34 @@
         <v>132</v>
       </c>
       <c r="B120">
-        <v>1.000164747238159</v>
+        <v>0.9999403953552246</v>
       </c>
       <c r="C120">
-        <v>1.000931859016418</v>
+        <v>1.000600218772888</v>
       </c>
       <c r="D120">
-        <v>0.9998815655708312</v>
+        <v>0.99982488155365</v>
       </c>
       <c r="E120">
-        <v>1.000214457511902</v>
+        <v>0.9999778270721436</v>
       </c>
       <c r="F120">
-        <v>413588480</v>
+        <v>526733824</v>
       </c>
       <c r="G120">
-        <v>1.000157145708377</v>
+        <v>1.000049131478</v>
       </c>
       <c r="H120">
-        <v>1.000146627426147</v>
+        <v>1.000071984529495</v>
       </c>
       <c r="I120">
-        <v>1.000143120686213</v>
+        <v>1.00009752313296</v>
       </c>
       <c r="L120">
-        <v>52.46009617451426</v>
+        <v>46.88267094032787</v>
       </c>
       <c r="M120">
-        <v>51.88959053533408</v>
+        <v>47.45752304824729</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -4906,34 +4909,34 @@
         <v>133</v>
       </c>
       <c r="B121">
-        <v>1.000308871269226</v>
+        <v>1.000032186508179</v>
       </c>
       <c r="C121">
-        <v>1.000651597976685</v>
+        <v>1.000744342803955</v>
       </c>
       <c r="D121">
-        <v>0.9999633431434632</v>
+        <v>0.9997421503067015</v>
       </c>
       <c r="E121">
-        <v>1.000148057937622</v>
+        <v>1.00017261505127</v>
       </c>
       <c r="F121">
-        <v>212093440</v>
+        <v>361089024</v>
       </c>
       <c r="G121">
-        <v>1.000156319547399</v>
+        <v>1.000060357257388</v>
       </c>
       <c r="H121">
-        <v>1.000156098604202</v>
+        <v>1.000074589252472</v>
       </c>
       <c r="I121">
-        <v>1.000145524740219</v>
+        <v>1.000090620915095</v>
       </c>
       <c r="L121">
-        <v>49.25934417651138</v>
+        <v>56.09302195948055</v>
       </c>
       <c r="M121">
-        <v>50.00422695308075</v>
+        <v>52.82497183249656</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -4941,34 +4944,34 @@
         <v>134</v>
       </c>
       <c r="B122">
-        <v>1.000212788581848</v>
+        <v>0.9999804496765136</v>
       </c>
       <c r="C122">
-        <v>1.000509738922119</v>
+        <v>1.000971555709839</v>
       </c>
       <c r="D122">
-        <v>0.9999904036521912</v>
+        <v>0.9998173713684082</v>
       </c>
       <c r="E122">
-        <v>1.000144004821777</v>
+        <v>1.000156283378601</v>
       </c>
       <c r="F122">
-        <v>376632832</v>
+        <v>196012544</v>
       </c>
       <c r="G122">
-        <v>1.000155200026888</v>
+        <v>1.000069077813862</v>
       </c>
       <c r="H122">
-        <v>1.000158768892288</v>
+        <v>1.000086316466331</v>
       </c>
       <c r="I122">
-        <v>1.000150547424952</v>
+        <v>1.000093386570613</v>
       </c>
       <c r="L122">
-        <v>49.05381570980578</v>
+        <v>55.19036188770944</v>
       </c>
       <c r="M122">
-        <v>49.88507698718313</v>
+        <v>52.34217729330638</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -4976,34 +4979,34 @@
         <v>135</v>
       </c>
       <c r="B123">
-        <v>1.000185251235962</v>
+        <v>1.00040078163147</v>
       </c>
       <c r="C123">
-        <v>1.000566005706787</v>
+        <v>1.001184582710266</v>
       </c>
       <c r="D123">
-        <v>0.9999589920043944</v>
+        <v>0.99989116191864</v>
       </c>
       <c r="E123">
-        <v>1.000210046768188</v>
+        <v>1.000249981880188</v>
       </c>
       <c r="F123">
-        <v>49225728</v>
+        <v>37820928</v>
       </c>
       <c r="G123">
-        <v>1.000160186094279</v>
+        <v>1.000085523638073</v>
       </c>
       <c r="H123">
-        <v>1.000164037942886</v>
+        <v>1.000095352530479</v>
       </c>
       <c r="I123">
-        <v>1.000152391195297</v>
+        <v>1.000094693899155</v>
       </c>
       <c r="L123">
-        <v>52.67350326516797</v>
+        <v>59.40660170916262</v>
       </c>
       <c r="M123">
-        <v>51.89639329924017</v>
+        <v>54.88951893893275</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -5011,34 +5014,34 @@
         <v>136</v>
       </c>
       <c r="B124">
-        <v>1.000281572341919</v>
+        <v>1.000171422958374</v>
       </c>
       <c r="C124">
-        <v>1.000712871551514</v>
+        <v>1.000744104385376</v>
       </c>
       <c r="D124">
-        <v>0.9999629259109496</v>
+        <v>0.9999144077301024</v>
       </c>
       <c r="E124">
-        <v>1.000218391418457</v>
+        <v>1.000045657157898</v>
       </c>
       <c r="F124">
-        <v>107270144</v>
+        <v>183907328</v>
       </c>
       <c r="G124">
-        <v>1.000165477487386</v>
+        <v>1.000081899412603</v>
       </c>
       <c r="H124">
-        <v>1.000170570611954</v>
+        <v>1.000036314129829</v>
       </c>
       <c r="I124">
-        <v>1.000157791376114</v>
+        <v>1.000092250108719</v>
       </c>
       <c r="L124">
-        <v>53.14669856071254</v>
+        <v>48.26543051577217</v>
       </c>
       <c r="M124">
-        <v>52.15766874698724</v>
+        <v>48.76797869441374</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -5046,34 +5049,34 @@
         <v>137</v>
       </c>
       <c r="B125">
-        <v>1.000185370445252</v>
+        <v>1.000154733657837</v>
       </c>
       <c r="C125">
-        <v>1.000654339790344</v>
+        <v>1.000777363777161</v>
       </c>
       <c r="D125">
-        <v>0.9999656081199646</v>
+        <v>0.9998565316200256</v>
       </c>
       <c r="E125">
-        <v>1.000210523605347</v>
+        <v>1.000244140625</v>
       </c>
       <c r="F125">
-        <v>92015616</v>
+        <v>117501440</v>
       </c>
       <c r="G125">
-        <v>1.000169572589019</v>
+        <v>1.000096648613729</v>
       </c>
       <c r="H125">
-        <v>1.000179708003998</v>
+        <v>1.000046572089195</v>
       </c>
       <c r="I125">
-        <v>1.000159678856532</v>
+        <v>1.000102158387502</v>
       </c>
       <c r="L125">
-        <v>52.58896204697695</v>
+        <v>57.06503569598667</v>
       </c>
       <c r="M125">
-        <v>51.87159294465658</v>
+        <v>54.12071698758195</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -5081,34 +5084,34 @@
         <v>138</v>
       </c>
       <c r="B126">
-        <v>1.000272512435913</v>
+        <v>1.000111937522888</v>
       </c>
       <c r="C126">
-        <v>1.00068199634552</v>
+        <v>1.000821590423584</v>
       </c>
       <c r="D126">
-        <v>0.9998071193695068</v>
+        <v>0.9998431205749512</v>
       </c>
       <c r="E126">
-        <v>1.00016462802887</v>
+        <v>1.000141263008118</v>
       </c>
       <c r="F126">
-        <v>122160640</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>1.000169123083551</v>
+        <v>1.000100704467765</v>
       </c>
       <c r="H126">
-        <v>1.000178599357605</v>
+        <v>1.000055176019669</v>
       </c>
       <c r="I126">
-        <v>1.000168263912201</v>
+        <v>1.000100306669871</v>
       </c>
       <c r="L126">
-        <v>49.20058034320296</v>
+        <v>51.91592720516579</v>
       </c>
       <c r="M126">
-        <v>50.14383854864087</v>
+        <v>51.13834099018181</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -5116,34 +5119,34 @@
         <v>139</v>
       </c>
       <c r="B127">
-        <v>1.000212669372559</v>
+        <v>1.000169396400452</v>
       </c>
       <c r="C127">
-        <v>1.000783443450928</v>
+        <v>1.000513315200806</v>
       </c>
       <c r="D127">
-        <v>0.9998496770858764</v>
+        <v>0.9998612999916076</v>
       </c>
       <c r="E127">
-        <v>1.000231742858887</v>
+        <v>1.000048279762268</v>
       </c>
       <c r="F127">
-        <v>104261120</v>
+        <v>73934336</v>
       </c>
       <c r="G127">
-        <v>1.000174815790399</v>
+        <v>1.000095938585447</v>
       </c>
       <c r="H127">
-        <v>1.000179874897003</v>
+        <v>1.000057446956635</v>
       </c>
       <c r="I127">
-        <v>1.000167691707611</v>
+        <v>1.00009727080663</v>
       </c>
       <c r="L127">
-        <v>54.06916024910014</v>
+        <v>47.5530162652255</v>
       </c>
       <c r="M127">
-        <v>52.62868855430303</v>
+        <v>48.53504937218312</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -5151,34 +5154,34 @@
         <v>140</v>
       </c>
       <c r="B128">
-        <v>1.000250101089478</v>
+        <v>1.000112295150757</v>
       </c>
       <c r="C128">
-        <v>1.000956416130066</v>
+        <v>1.000536680221558</v>
       </c>
       <c r="D128">
-        <v>0.9999014139175416</v>
+        <v>0.9998812675476074</v>
       </c>
       <c r="E128">
-        <v>1.000200390815735</v>
+        <v>1.000239491462708</v>
       </c>
       <c r="F128">
-        <v>104064000</v>
+        <v>13994496</v>
       </c>
       <c r="G128">
-        <v>1.000177140792702</v>
+        <v>1.000108988847016</v>
       </c>
       <c r="H128">
-        <v>1.000171947479248</v>
+        <v>1.000067901611328</v>
       </c>
       <c r="I128">
-        <v>1.000160260995229</v>
+        <v>1.000099297364553</v>
       </c>
       <c r="L128">
-        <v>51.47646118641969</v>
+        <v>56.08995062530916</v>
       </c>
       <c r="M128">
-        <v>51.34138503165873</v>
+        <v>53.74926804057293</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -5186,34 +5189,34 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>1.000183343887329</v>
+        <v>1.000162959098816</v>
       </c>
       <c r="C129">
-        <v>1.000606417655945</v>
+        <v>1.000631809234619</v>
       </c>
       <c r="D129">
-        <v>0.9999303817749025</v>
+        <v>0.9998915791511536</v>
       </c>
       <c r="E129">
-        <v>1.000081062316894</v>
+        <v>1.000150322914124</v>
       </c>
       <c r="F129">
-        <v>33988096</v>
+        <v>2587136</v>
       </c>
       <c r="G129">
-        <v>1.000168406385811</v>
+        <v>1.00011274648948</v>
       </c>
       <c r="H129">
-        <v>1.000173962116242</v>
+        <v>1.000071638822555</v>
       </c>
       <c r="I129">
-        <v>1.000157606601715</v>
+        <v>1.000099325180054</v>
       </c>
       <c r="L129">
-        <v>42.70767858346355</v>
+        <v>51.67700554945606</v>
       </c>
       <c r="M129">
-        <v>46.66301843549111</v>
+        <v>51.14684185783309</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -5221,34 +5224,34 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>1.000074028968811</v>
+        <v>1.000085234642029</v>
       </c>
       <c r="C130">
-        <v>1.000574588775635</v>
+        <v>1.000667691230774</v>
       </c>
       <c r="D130">
-        <v>0.9998235702514648</v>
+        <v>0.9998911023139954</v>
       </c>
       <c r="E130">
-        <v>1.000173330307007</v>
+        <v>1.000160455703735</v>
       </c>
       <c r="F130">
-        <v>121360384</v>
+        <v>10329600</v>
       </c>
       <c r="G130">
-        <v>1.00016885401501</v>
+        <v>1.000117083690776</v>
       </c>
       <c r="H130">
-        <v>1.000177818536758</v>
+        <v>1.000073748826981</v>
       </c>
       <c r="I130">
-        <v>1.000157157580058</v>
+        <v>1.000101606051127</v>
       </c>
       <c r="L130">
-        <v>50.10162691599799</v>
+        <v>52.15820023676569</v>
       </c>
       <c r="M130">
-        <v>50.42471254716376</v>
+        <v>51.43460475948317</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -5256,34 +5259,34 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>1.000160098075867</v>
+        <v>1.000271081924438</v>
       </c>
       <c r="C131">
-        <v>1.000622034072876</v>
+        <v>1.000437617301941</v>
       </c>
       <c r="D131">
-        <v>0.9999029040336608</v>
+        <v>0.9998747706413268</v>
       </c>
       <c r="E131">
-        <v>1.000199556350708</v>
+        <v>1.000143885612488</v>
       </c>
       <c r="F131">
-        <v>31739392</v>
+        <v>16270336</v>
       </c>
       <c r="G131">
-        <v>1.000171645136437</v>
+        <v>1.000119520229114</v>
       </c>
       <c r="H131">
-        <v>1.000172555446625</v>
+        <v>1.000083261728287</v>
       </c>
       <c r="I131">
-        <v>1.00016518831253</v>
+        <v>1.000102384885152</v>
       </c>
       <c r="L131">
-        <v>52.07922515219579</v>
+        <v>51.21987394034029</v>
       </c>
       <c r="M131">
-        <v>51.4723492702451</v>
+        <v>50.90652903413601</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -5291,34 +5294,34 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>1.000218391418457</v>
+        <v>0.9998849630355836</v>
       </c>
       <c r="C132">
-        <v>1.001233100891113</v>
+        <v>1.000775933265686</v>
       </c>
       <c r="D132">
-        <v>0.9999027252197266</v>
+        <v>0.9998849630355836</v>
       </c>
       <c r="E132">
-        <v>1.000379681587219</v>
+        <v>1.000047564506531</v>
       </c>
       <c r="F132">
-        <v>9841664</v>
+        <v>25092096</v>
       </c>
       <c r="G132">
-        <v>1.000190557541054</v>
+        <v>1.000112978799788</v>
       </c>
       <c r="H132">
-        <v>1.000184464454651</v>
+        <v>1.000087863206863</v>
       </c>
       <c r="I132">
-        <v>1.000174824396769</v>
+        <v>1.000106579065323</v>
       </c>
       <c r="L132">
-        <v>63.31364302580877</v>
+        <v>45.82831604979401</v>
       </c>
       <c r="M132">
-        <v>58.03212405086013</v>
+        <v>47.8322528719014</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -5326,34 +5329,34 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>1.000211596488953</v>
+        <v>1.000189542770386</v>
       </c>
       <c r="C133">
-        <v>1.000672221183777</v>
+        <v>1.000773906707764</v>
       </c>
       <c r="D133">
-        <v>0.999698281288147</v>
+        <v>0.9999231100082396</v>
       </c>
       <c r="E133">
-        <v>1.000073313713074</v>
+        <v>1.000209808349609</v>
       </c>
       <c r="F133">
-        <v>848532992</v>
+        <v>26033664</v>
       </c>
       <c r="G133">
-        <v>1.000179899011237</v>
+        <v>1.000121781486135</v>
       </c>
       <c r="H133">
-        <v>1.000181573629379</v>
+        <v>1.000098490715027</v>
       </c>
       <c r="I133">
-        <v>1.000173779328664</v>
+        <v>1.000111263990402</v>
       </c>
       <c r="L133">
-        <v>43.70713464190639</v>
+        <v>54.83693923130353</v>
       </c>
       <c r="M133">
-        <v>46.51495781446546</v>
+        <v>52.98284527404184</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -5361,34 +5364,34 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>1.000177264213562</v>
+        <v>1.00048041343689</v>
       </c>
       <c r="C134">
-        <v>1.000788807868958</v>
+        <v>1.000678062438965</v>
       </c>
       <c r="D134">
-        <v>0.999907374382019</v>
+        <v>0.99994695186615</v>
       </c>
       <c r="E134">
-        <v>1.000210762023926</v>
+        <v>1.00036358833313</v>
       </c>
       <c r="F134">
-        <v>387729408</v>
+        <v>219722240</v>
       </c>
       <c r="G134">
-        <v>1.000182704739664</v>
+        <v>1.000143763926771</v>
       </c>
       <c r="H134">
-        <v>1.000190329551697</v>
+        <v>1.000117859244347</v>
       </c>
       <c r="I134">
-        <v>1.000177880128225</v>
+        <v>1.000082502762477</v>
       </c>
       <c r="L134">
-        <v>51.31627299929413</v>
+        <v>61.6392608202375</v>
       </c>
       <c r="M134">
-        <v>51.19473043276652</v>
+        <v>57.28739229491215</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -5396,34 +5399,34 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.000390291213989</v>
+        <v>1.000192165374756</v>
       </c>
       <c r="C135">
-        <v>1.000751256942749</v>
+        <v>1.000834941864014</v>
       </c>
       <c r="D135">
-        <v>0.9999457001686096</v>
+        <v>0.9999189376831056</v>
       </c>
       <c r="E135">
-        <v>1.000118970870972</v>
+        <v>1.000223517417907</v>
       </c>
       <c r="F135">
-        <v>149564416</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>1.000176910751601</v>
+        <v>1.000151014244147</v>
       </c>
       <c r="H135">
-        <v>1.000191813707352</v>
+        <v>1.000131699442864</v>
       </c>
       <c r="I135">
-        <v>1.000180919965108</v>
+        <v>1.000088653961817</v>
       </c>
       <c r="L135">
-        <v>46.58535445689435</v>
+        <v>53.39790459192575</v>
       </c>
       <c r="M135">
-        <v>48.16390973537299</v>
+        <v>52.56661050336859</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -5431,34 +5434,34 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>1.000203251838684</v>
+        <v>1.00013267993927</v>
       </c>
       <c r="C136">
-        <v>1.000503659248352</v>
+        <v>1.000699520111084</v>
       </c>
       <c r="D136">
-        <v>0.9999396800994872</v>
+        <v>0.9999022483825684</v>
       </c>
       <c r="E136">
-        <v>0.9999468922615052</v>
+        <v>1.000184416770935</v>
       </c>
       <c r="F136">
-        <v>10982912</v>
+        <v>62696448</v>
       </c>
       <c r="G136">
-        <v>1.000155999979774</v>
+        <v>1.000154050837492</v>
       </c>
       <c r="H136">
-        <v>1.000173565745354</v>
+        <v>1.000133123993874</v>
       </c>
       <c r="I136">
-        <v>1.000172923008601</v>
+        <v>1.000095828374227</v>
       </c>
       <c r="L136">
-        <v>39.00208082850784</v>
+        <v>51.24615822959001</v>
       </c>
       <c r="M136">
-        <v>43.02187438366371</v>
+        <v>51.29586697195493</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -5466,34 +5469,34 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>1.000123262405396</v>
+        <v>1.000133872032166</v>
       </c>
       <c r="C137">
-        <v>1.000515460968018</v>
+        <v>1.000717878341675</v>
       </c>
       <c r="D137">
-        <v>0.999872386455536</v>
+        <v>0.9999610781669616</v>
       </c>
       <c r="E137">
-        <v>1.000196814537048</v>
+        <v>1.00040066242218</v>
       </c>
       <c r="F137">
-        <v>27468288</v>
+        <v>107228672</v>
       </c>
       <c r="G137">
-        <v>1.000159710394071</v>
+        <v>1.000176470072463</v>
       </c>
       <c r="H137">
-        <v>1.000176724791527</v>
+        <v>1.000157108902931</v>
       </c>
       <c r="I137">
-        <v>1.000172609090805</v>
+        <v>1.000109088420868</v>
       </c>
       <c r="L137">
-        <v>51.81737035440542</v>
+        <v>61.01926867244536</v>
       </c>
       <c r="M137">
-        <v>51.17490676924562</v>
+        <v>57.42563740567757</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -5501,34 +5504,34 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>1.000171422958374</v>
+        <v>1.000192880630493</v>
       </c>
       <c r="C138">
-        <v>1.000699758529663</v>
+        <v>1.001041889190674</v>
       </c>
       <c r="D138">
-        <v>0.99992173910141</v>
+        <v>0.9998955726623536</v>
       </c>
       <c r="E138">
-        <v>1.000139355659485</v>
+        <v>1.000256061553955</v>
       </c>
       <c r="F138">
-        <v>234926592</v>
+        <v>316362752</v>
       </c>
       <c r="G138">
-        <v>1.000157859963654</v>
+        <v>1.00018370566169</v>
       </c>
       <c r="H138">
-        <v>1.000170466303825</v>
+        <v>1.000169911980629</v>
       </c>
       <c r="I138">
-        <v>1.000165289640427</v>
+        <v>1.000116610527038</v>
       </c>
       <c r="L138">
-        <v>49.14674565304543</v>
+        <v>53.02336922437758</v>
       </c>
       <c r="M138">
-        <v>49.42391148237202</v>
+        <v>52.65349093568621</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -5536,34 +5539,34 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>1.000062346458435</v>
+        <v>1.000410914421082</v>
       </c>
       <c r="C139">
-        <v>1.000803709030151</v>
+        <v>1.000931620597839</v>
       </c>
       <c r="D139">
-        <v>0.9996938109397888</v>
+        <v>0.999930500984192</v>
       </c>
       <c r="E139">
-        <v>1.000178694725037</v>
+        <v>1.000115633010864</v>
       </c>
       <c r="F139">
-        <v>58785792</v>
+        <v>136291840</v>
       </c>
       <c r="G139">
-        <v>1.000159754032871</v>
+        <v>1.000177517238888</v>
       </c>
       <c r="H139">
-        <v>1.000172033905983</v>
+        <v>1.000176572799683</v>
       </c>
       <c r="I139">
-        <v>1.00016988714536</v>
+        <v>1.000117945671082</v>
       </c>
       <c r="L139">
-        <v>51.08838652569608</v>
+        <v>46.38294723999196</v>
       </c>
       <c r="M139">
-        <v>50.6684385984957</v>
+        <v>48.44321935669083</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -5571,34 +5574,34 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>1.000170350074768</v>
+        <v>1.00025999546051</v>
       </c>
       <c r="C140">
-        <v>1.000508546829224</v>
+        <v>1.000758647918701</v>
       </c>
       <c r="D140">
-        <v>0.9998958110809326</v>
+        <v>0.9998868107795716</v>
       </c>
       <c r="E140">
-        <v>1.000149488449097</v>
+        <v>1.00020956993103</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>287420416</v>
       </c>
       <c r="G140">
-        <v>1.000158820797982</v>
+        <v>1.000180431119991</v>
       </c>
       <c r="H140">
-        <v>1.000168785452843</v>
+        <v>1.000188159942627</v>
       </c>
       <c r="I140">
-        <v>1.000171663363775</v>
+        <v>1.000120989481608</v>
       </c>
       <c r="L140">
-        <v>49.5095266220233</v>
+        <v>51.00090413055917</v>
       </c>
       <c r="M140">
-        <v>49.69081412490203</v>
+        <v>51.25131230945028</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -5606,34 +5609,34 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>1.000241994857788</v>
+        <v>1.000068426132202</v>
       </c>
       <c r="C141">
-        <v>1.000528573989868</v>
+        <v>1.000383734703064</v>
       </c>
       <c r="D141">
-        <v>0.9999320507049561</v>
+        <v>0.9999169111251832</v>
       </c>
       <c r="E141">
-        <v>1.000092029571533</v>
+        <v>1.000181198120117</v>
       </c>
       <c r="F141">
-        <v>47936000</v>
+        <v>170758656</v>
       </c>
       <c r="G141">
-        <v>1.000152748868305</v>
+        <v>1.000180500847275</v>
       </c>
       <c r="H141">
-        <v>1.000165984034538</v>
+        <v>1.000188589096069</v>
       </c>
       <c r="I141">
-        <v>1.000164570411046</v>
+        <v>1.000128575166066</v>
       </c>
       <c r="L141">
-        <v>46.33988721671506</v>
+        <v>49.55079455157469</v>
       </c>
       <c r="M141">
-        <v>47.73928044927786</v>
+        <v>50.35915881923677</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -5641,34 +5644,34 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>1.0001380443573</v>
+        <v>1.000263690948486</v>
       </c>
       <c r="C142">
-        <v>1.000279664993286</v>
+        <v>1.000573992729187</v>
       </c>
       <c r="D142">
-        <v>0.9998974800109864</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="E142">
-        <v>1.000120520591736</v>
+        <v>1.000129818916321</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>65248256</v>
       </c>
       <c r="G142">
-        <v>1.00014981902498</v>
+        <v>1.000175893399007</v>
       </c>
       <c r="H142">
-        <v>1.000164809823036</v>
+        <v>1.000187265872955</v>
       </c>
       <c r="I142">
-        <v>1.000163871049881</v>
+        <v>1.000134384632111</v>
       </c>
       <c r="L142">
-        <v>48.19016394558332</v>
+        <v>46.83766213023524</v>
       </c>
       <c r="M142">
-        <v>48.81276828264743</v>
+        <v>48.7056779372014</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -5676,34 +5679,34 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>1.000105738639832</v>
+        <v>1.000153303146362</v>
       </c>
       <c r="C143">
-        <v>1.0005042552948</v>
+        <v>1.000626087188721</v>
       </c>
       <c r="D143">
-        <v>0.9998947978019714</v>
+        <v>1.000024914741516</v>
       </c>
       <c r="E143">
-        <v>0.99992173910141</v>
+        <v>1.000197649002075</v>
       </c>
       <c r="F143">
         <v>0</v>
       </c>
       <c r="G143">
-        <v>1.000129084486474</v>
+        <v>1.000177871181104</v>
       </c>
       <c r="H143">
-        <v>1.000150394439697</v>
+        <v>1.00018464922905</v>
       </c>
       <c r="I143">
-        <v>1.000156891345978</v>
+        <v>1.000141064325968</v>
       </c>
       <c r="L143">
-        <v>37.92564603152282</v>
+        <v>50.83579231777834</v>
       </c>
       <c r="M143">
-        <v>42.2863543984943</v>
+        <v>50.99335824182452</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -5711,627 +5714,624 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>0.9999856352806092</v>
+        <v>1.000187754631042</v>
       </c>
       <c r="C144">
-        <v>1.000455975532532</v>
+        <v>1.000393509864807</v>
       </c>
       <c r="D144">
-        <v>0.99977707862854</v>
+        <v>0.9999679923057556</v>
       </c>
       <c r="E144">
-        <v>1.000069260597229</v>
+        <v>1.000177145004272</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>1.000123645951088</v>
+        <v>1.000177805165028</v>
       </c>
       <c r="H144">
-        <v>1.000142937898636</v>
+        <v>1.000191223621368</v>
       </c>
       <c r="I144">
-        <v>1.0001580119133</v>
+        <v>1.00014776190122</v>
       </c>
       <c r="L144">
-        <v>47.29782511470794</v>
+        <v>49.5680716033739</v>
       </c>
       <c r="M144">
-        <v>47.85810922150758</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>50.26359754070065</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>1.000067710876465</v>
+        <v>1.000105857849121</v>
       </c>
       <c r="C145">
-        <v>1.001578688621521</v>
+        <v>1.000393390655518</v>
       </c>
       <c r="D145">
-        <v>0.9999827146530152</v>
+        <v>1.000023245811462</v>
       </c>
       <c r="E145">
-        <v>1.001226425170898</v>
+        <v>1.00025475025177</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>1.000223898607434</v>
+        <v>1.000184800172914</v>
       </c>
       <c r="H145">
-        <v>1.000193732976913</v>
+        <v>1.000191754102707</v>
       </c>
       <c r="I145">
-        <v>1.000195916493734</v>
+        <v>1.000158029794693</v>
       </c>
       <c r="L145">
-        <v>77.40390193409337</v>
+        <v>54.40909586329872</v>
       </c>
       <c r="M145">
-        <v>71.28001422647728</v>
-      </c>
-      <c r="O145" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>53.00489824380581</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>1.001326084136963</v>
+        <v>1.000188827514648</v>
       </c>
       <c r="C146">
-        <v>1.001625180244446</v>
+        <v>1.000343441963196</v>
       </c>
       <c r="D146">
-        <v>0.9998029470443726</v>
+        <v>0.9999051094055176</v>
       </c>
       <c r="E146">
-        <v>1.000038981437683</v>
+        <v>1.000097751617432</v>
       </c>
       <c r="F146">
         <v>0</v>
       </c>
       <c r="G146">
-        <v>1.000207087955639</v>
+        <v>1.00017688666787</v>
       </c>
       <c r="H146">
-        <v>1.000187450647354</v>
+        <v>1.000189578533173</v>
       </c>
       <c r="I146">
-        <v>1.000186820824941</v>
+        <v>1.000156090656916</v>
       </c>
       <c r="L146">
-        <v>46.64370547210894</v>
+        <v>44.65367149862098</v>
       </c>
       <c r="M146">
-        <v>47.63410408743534</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>47.32240898778415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>1.000105023384094</v>
+        <v>1.000112175941467</v>
       </c>
       <c r="C147">
-        <v>1.000473141670227</v>
+        <v>1.000391006469727</v>
       </c>
       <c r="D147">
-        <v>0.999835968017578</v>
+        <v>0.9999687075614928</v>
       </c>
       <c r="E147">
-        <v>0.9999691843986512</v>
+        <v>1.000115633010864</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>38985472</v>
       </c>
       <c r="G147">
-        <v>1.000185460359549</v>
+        <v>1.000171318153597</v>
       </c>
       <c r="H147">
-        <v>1.000174322724342</v>
+        <v>1.000192946195603</v>
       </c>
       <c r="I147">
-        <v>1.000181339184443</v>
+        <v>1.000162579615911</v>
       </c>
       <c r="L147">
-        <v>45.44935856035789</v>
+        <v>45.89663098421078</v>
       </c>
       <c r="M147">
-        <v>46.65441195671735</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>48.00610825005134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>0.9999802708625792</v>
+        <v>1.000171661376953</v>
       </c>
       <c r="C148">
-        <v>1.000687837600708</v>
+        <v>1.000285148620606</v>
       </c>
       <c r="D148">
-        <v>0.9998227953910828</v>
+        <v>0.9999138116836548</v>
       </c>
       <c r="E148">
-        <v>1.000002861022949</v>
+        <v>1.000046968460083</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>152215552</v>
       </c>
       <c r="G148">
-        <v>1.000168860419858</v>
+        <v>1.000160013636004</v>
       </c>
       <c r="H148">
-        <v>1.000164446234703</v>
+        <v>1.000183320045471</v>
       </c>
       <c r="I148">
-        <v>1.000172617038091</v>
+        <v>1.000164145231247</v>
       </c>
       <c r="L148">
-        <v>46.19716072259242</v>
+        <v>41.83763152034337</v>
       </c>
       <c r="M148">
-        <v>47.21847775289516</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>45.56073138009938</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>0.9998538494110109</v>
+        <v>0.9998964071273804</v>
       </c>
       <c r="C149">
-        <v>1.000919342041016</v>
+        <v>1.000322699546814</v>
       </c>
       <c r="D149">
-        <v>0.9998362064361572</v>
+        <v>0.9996997714042664</v>
       </c>
       <c r="E149">
-        <v>1.000030398368835</v>
+        <v>1.000277996063232</v>
       </c>
       <c r="F149">
-        <v>236288</v>
+        <v>409537792</v>
       </c>
       <c r="G149">
-        <v>1.000156272960674</v>
+        <v>1.000170739311207</v>
       </c>
       <c r="H149">
-        <v>1.0001619130373</v>
+        <v>1.000189703702927</v>
       </c>
       <c r="I149">
-        <v>1.000168718894323</v>
+        <v>1.000173997879028</v>
       </c>
       <c r="L149">
-        <v>46.86719290995748</v>
+        <v>56.42455812749107</v>
       </c>
       <c r="M149">
-        <v>47.70540744033141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>54.04308114972446</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>1.000061988830566</v>
+        <v>1.000070214271545</v>
       </c>
       <c r="C150">
-        <v>1.000451922416687</v>
+        <v>1.000301241874695</v>
       </c>
       <c r="D150">
-        <v>0.999868392944336</v>
+        <v>0.9999204277992249</v>
       </c>
       <c r="E150">
-        <v>1.000075578689575</v>
+        <v>1.00010871887207</v>
       </c>
       <c r="F150">
-        <v>2627584</v>
+        <v>86682112</v>
       </c>
       <c r="G150">
-        <v>1.000148937117847</v>
+        <v>1.000165101089467</v>
       </c>
       <c r="H150">
-        <v>1.000157025456428</v>
+        <v>1.000187116861343</v>
       </c>
       <c r="I150">
-        <v>1.000164089600245</v>
+        <v>1.000178360939026</v>
       </c>
       <c r="L150">
-        <v>48.06107968443992</v>
+        <v>46.75813154277166</v>
       </c>
       <c r="M150">
-        <v>48.54415443124377</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>48.12605591975415</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>1.000070095062256</v>
+        <v>1.000085234642029</v>
       </c>
       <c r="C151">
-        <v>1.000423669815064</v>
+        <v>1.000270843505859</v>
       </c>
       <c r="D151">
-        <v>0.9999123811721802</v>
+        <v>0.999948501586914</v>
       </c>
       <c r="E151">
-        <v>1.000118255615234</v>
+        <v>1.000170707702637</v>
       </c>
       <c r="F151">
-        <v>21842944</v>
+        <v>457826560</v>
       </c>
       <c r="G151">
-        <v>1.000146147890337</v>
+        <v>1.000165610781574</v>
       </c>
       <c r="H151">
-        <v>1.000152960419655</v>
+        <v>1.000188457965851</v>
       </c>
       <c r="I151">
-        <v>1.000163096189499</v>
+        <v>1.000178297360738</v>
       </c>
       <c r="J151">
-        <v>1.000131161212921</v>
+        <v>1.000118611256281</v>
       </c>
       <c r="L151">
-        <v>49.27235105954737</v>
+        <v>50.268078484341</v>
       </c>
       <c r="M151">
-        <v>49.3702091657759</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>50.27316363491114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>1.000047445297241</v>
+        <v>1.000099182128906</v>
       </c>
       <c r="C152">
-        <v>1.000469207763672</v>
+        <v>1.00032639503479</v>
       </c>
       <c r="D152">
-        <v>0.999857783317566</v>
+        <v>0.9999514818191528</v>
       </c>
       <c r="E152">
-        <v>0.9999536275863647</v>
+        <v>1.000195980072022</v>
       </c>
       <c r="F152">
-        <v>32930048</v>
+        <v>323291136</v>
       </c>
       <c r="G152">
-        <v>1.000128646044521</v>
+        <v>1.00016837162616</v>
       </c>
       <c r="H152">
-        <v>1.000131657719612</v>
+        <v>1.000195878744125</v>
       </c>
       <c r="I152">
-        <v>1.000156750281652</v>
+        <v>1.000179620583852</v>
       </c>
       <c r="J152">
-        <v>1.000128809774159</v>
+        <v>1.000119636008808</v>
       </c>
       <c r="L152">
-        <v>44.74393912375729</v>
+        <v>51.7276675033125</v>
       </c>
       <c r="M152">
-        <v>46.28350051701855</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+        <v>51.16071011177586</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>1.000020742416382</v>
+        <v>1.000146865844727</v>
       </c>
       <c r="C153">
-        <v>1.000428199768066</v>
+        <v>1.000279426574707</v>
       </c>
       <c r="D153">
-        <v>0.999824047088623</v>
+        <v>0.9999305605888368</v>
       </c>
       <c r="E153">
-        <v>0.9999555349349976</v>
+        <v>1.000097155570984</v>
       </c>
       <c r="F153">
-        <v>442192896</v>
+        <v>171044352</v>
       </c>
       <c r="G153">
-        <v>1.000112908670928</v>
+        <v>1.000161897439326</v>
       </c>
       <c r="H153">
-        <v>1.000125768780708</v>
+        <v>1.000190246105194</v>
       </c>
       <c r="I153">
-        <v>1.000148266553879</v>
+        <v>1.000174526373545</v>
       </c>
       <c r="J153">
-        <v>1.000126514743177</v>
+        <v>1.000119338254664</v>
       </c>
       <c r="L153">
-        <v>44.81005130071198</v>
+        <v>45.81269921843372</v>
       </c>
       <c r="M153">
-        <v>46.32537126393726</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <v>47.58414682594907</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>0.9999650120735168</v>
+        <v>1.000116586685181</v>
       </c>
       <c r="C154">
-        <v>1.000686883926392</v>
+        <v>1.000307321548462</v>
       </c>
       <c r="D154">
-        <v>0.999805748462677</v>
+        <v>0.9999468326568604</v>
       </c>
       <c r="E154">
-        <v>0.9999972581863404</v>
+        <v>1.000101685523987</v>
       </c>
       <c r="F154">
-        <v>576077312</v>
+        <v>51788288</v>
       </c>
       <c r="G154">
-        <v>1.000102394990511</v>
+        <v>1.00015642362884</v>
       </c>
       <c r="H154">
-        <v>1.000115093588829</v>
+        <v>1.000177150964737</v>
       </c>
       <c r="I154">
-        <v>1.000140895446141</v>
+        <v>1.000176393985748</v>
       </c>
       <c r="J154">
-        <v>1.000124802735801</v>
+        <v>1.000119104443662</v>
       </c>
       <c r="L154">
-        <v>46.3886045348349</v>
+        <v>46.1303538820096</v>
       </c>
       <c r="M154">
-        <v>47.29320850535938</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>47.76441107145691</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>0.9999626874923706</v>
+        <v>1.000086307525635</v>
       </c>
       <c r="C155">
-        <v>1.000696301460266</v>
+        <v>1.000465631484985</v>
       </c>
       <c r="D155">
-        <v>0.9998298287391664</v>
+        <v>0.9999831914901732</v>
       </c>
       <c r="E155">
-        <v>0.9999762177467346</v>
+        <v>1.000245213508606</v>
       </c>
       <c r="F155">
-        <v>793703424</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>1.000090924331986</v>
+        <v>1.000164495436092</v>
       </c>
       <c r="H155">
-        <v>1.000107955932617</v>
+        <v>1.000178235769272</v>
       </c>
       <c r="I155">
-        <v>1.000133085250855</v>
+        <v>1.000176429748535</v>
       </c>
       <c r="J155">
-        <v>1.000122834722701</v>
+        <v>1.000120774762403</v>
       </c>
       <c r="L155">
-        <v>45.64789290216977</v>
+        <v>55.44115509463632</v>
       </c>
       <c r="M155">
-        <v>46.83457977543701</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <v>53.25037153510316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>1.000033974647522</v>
+        <v>1.000340938568115</v>
       </c>
       <c r="C156">
-        <v>1.00068724155426</v>
+        <v>1.00049877166748</v>
       </c>
       <c r="D156">
-        <v>0.9998584985733032</v>
+        <v>0.999978005886078</v>
       </c>
       <c r="E156">
-        <v>0.9999467134475708</v>
+        <v>1.000217318534851</v>
       </c>
       <c r="F156">
-        <v>866630400</v>
+        <v>84768768</v>
       </c>
       <c r="G156">
-        <v>1.000077814251584</v>
+        <v>1.000169297535979</v>
       </c>
       <c r="H156">
-        <v>1.000107946991921</v>
+        <v>1.000179880857468</v>
       </c>
       <c r="I156">
-        <v>1.000125821431478</v>
+        <v>1.00017896493276</v>
       </c>
       <c r="J156">
-        <v>1.00012050199058</v>
+        <v>1.000122053487866</v>
       </c>
       <c r="L156">
-        <v>44.52629438553807</v>
+        <v>53.42228988323944</v>
       </c>
       <c r="M156">
-        <v>46.15860524560878</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>52.10501742864939</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>1.000009179115295</v>
+        <v>1.000221014022827</v>
       </c>
       <c r="C157">
-        <v>1.000955700874329</v>
+        <v>1.000470161437989</v>
       </c>
       <c r="D157">
-        <v>0.999804675579071</v>
+        <v>0.9999322295188904</v>
       </c>
       <c r="E157">
-        <v>1.000155925750732</v>
+        <v>1.000089526176453</v>
       </c>
       <c r="F157">
-        <v>1327259648</v>
+        <v>93692672</v>
       </c>
       <c r="G157">
-        <v>1.000084915296961</v>
+        <v>1.000162045594204</v>
       </c>
       <c r="H157">
-        <v>1.000105902552605</v>
+        <v>1.000164324045181</v>
       </c>
       <c r="I157">
-        <v>1.000123294194539</v>
+        <v>1.000180339813233</v>
       </c>
       <c r="J157">
-        <v>1.000120971179457</v>
+        <v>1.000121622662549</v>
       </c>
       <c r="L157">
-        <v>53.61756657754225</v>
+        <v>44.98056145281378</v>
       </c>
       <c r="M157">
-        <v>51.50373882797672</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>47.10628800644452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>1.000106573104858</v>
+        <v>1.000159740447998</v>
       </c>
       <c r="C158">
-        <v>1.000587582588196</v>
+        <v>1.000667572021484</v>
       </c>
       <c r="D158">
-        <v>0.999785542488098</v>
+        <v>0.9999605417251588</v>
       </c>
       <c r="E158">
-        <v>0.9999209642410278</v>
+        <v>1.000263094902039</v>
       </c>
       <c r="F158">
-        <v>846201856</v>
+        <v>574099968</v>
       </c>
       <c r="G158">
-        <v>1.000070010655513</v>
+        <v>1.000171231894916</v>
       </c>
       <c r="H158">
-        <v>1.000094982981682</v>
+        <v>1.000164675712585</v>
       </c>
       <c r="I158">
-        <v>1.000113979975382</v>
+        <v>1.000181126594544</v>
       </c>
       <c r="J158">
-        <v>1.000118322080934</v>
+        <v>1.000123496467046</v>
       </c>
       <c r="L158">
-        <v>44.41991011261187</v>
+        <v>55.68132479012933</v>
       </c>
       <c r="M158">
-        <v>45.98258518904261</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>53.61518219988059</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>0.9999549388885498</v>
+        <v>1.000196933746338</v>
       </c>
       <c r="C159">
-        <v>1.000443339347839</v>
+        <v>1.000420928001404</v>
       </c>
       <c r="D159">
-        <v>0.9997920989990234</v>
+        <v>1.000005006790161</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>1.000005006790161</v>
       </c>
       <c r="F159">
-        <v>58675712</v>
+        <v>49318400</v>
       </c>
       <c r="G159">
-        <v>1.000063646050466</v>
+        <v>1.000156120521756</v>
       </c>
       <c r="H159">
-        <v>1.00008604824543</v>
+        <v>1.00015914440155</v>
       </c>
       <c r="I159">
-        <v>1.000111277898153</v>
+        <v>1.000176282723745</v>
       </c>
       <c r="J159">
-        <v>1.000116754901055</v>
+        <v>1.000121927067352</v>
       </c>
       <c r="L159">
-        <v>47.80798920842298</v>
+        <v>42.01261869319054</v>
       </c>
       <c r="M159">
-        <v>48.00183781912856</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>44.78929111724193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>1.000017166137695</v>
+        <v>1.000277161598206</v>
       </c>
       <c r="C160">
-        <v>1.000622630119324</v>
+        <v>1.000375270843506</v>
       </c>
       <c r="D160">
-        <v>0.9998464584350586</v>
+        <v>0.99978107213974</v>
       </c>
       <c r="E160">
-        <v>0.9999824166297911</v>
+        <v>1.0000159740448</v>
       </c>
       <c r="F160">
-        <v>56782336</v>
+        <v>176995328</v>
       </c>
       <c r="G160">
-        <v>1.000056261557677</v>
+        <v>1.000143379932942</v>
       </c>
       <c r="H160">
-        <v>1.000077694654465</v>
+        <v>1.000149464607239</v>
       </c>
       <c r="I160">
-        <v>1.000104914108912</v>
+        <v>1.000171466668447</v>
       </c>
       <c r="J160">
-        <v>1.000114975586204</v>
+        <v>1.00012052371606</v>
       </c>
       <c r="L160">
-        <v>47.08955028576831</v>
+        <v>42.68523411051169</v>
       </c>
       <c r="M160">
-        <v>47.57574361978558</v>
+        <v>45.20210025396529</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -6339,37 +6339,37 @@
         <v>173</v>
       </c>
       <c r="B161">
-        <v>0.9999403953552246</v>
+        <v>1.000031232833862</v>
       </c>
       <c r="C161">
-        <v>1.000600218772888</v>
+        <v>1.000221371650696</v>
       </c>
       <c r="D161">
-        <v>0.99982488155365</v>
+        <v>0.9999266266822816</v>
       </c>
       <c r="E161">
-        <v>0.9999778270721436</v>
+        <v>1.000088214874268</v>
       </c>
       <c r="F161">
-        <v>526733824</v>
+        <v>43279872</v>
       </c>
       <c r="G161">
-        <v>1.000049131149902</v>
+        <v>1.000138364927608</v>
       </c>
       <c r="H161">
-        <v>1.000071984529495</v>
+        <v>1.000144815444946</v>
       </c>
       <c r="I161">
-        <v>1.00009752313296</v>
+        <v>1.000169610977173</v>
       </c>
       <c r="J161">
-        <v>1.000113159049594</v>
+        <v>1.000120095784381</v>
       </c>
       <c r="L161">
-        <v>46.88266818049345</v>
+        <v>47.22178068482517</v>
       </c>
       <c r="M161">
-        <v>47.4573292404549</v>
+        <v>47.96213728437383</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -6377,37 +6377,37 @@
         <v>174</v>
       </c>
       <c r="B162">
-        <v>1.000032186508179</v>
+        <v>1.000138282775879</v>
       </c>
       <c r="C162">
-        <v>1.000744342803955</v>
+        <v>1.000293493270874</v>
       </c>
       <c r="D162">
-        <v>0.9997421503067015</v>
+        <v>0.9998993277549744</v>
       </c>
       <c r="E162">
-        <v>1.00017261505127</v>
+        <v>1.000139355659485</v>
       </c>
       <c r="F162">
-        <v>361089024</v>
+        <v>73015296</v>
       </c>
       <c r="G162">
-        <v>1.000060356959117</v>
+        <v>1.000138454994142</v>
       </c>
       <c r="H162">
-        <v>1.000074589252472</v>
+        <v>1.000145292282105</v>
       </c>
       <c r="I162">
-        <v>1.000090620915095</v>
+        <v>1.000172670682271</v>
       </c>
       <c r="J162">
-        <v>1.000113946546304</v>
+        <v>1.000120350882064</v>
       </c>
       <c r="L162">
-        <v>56.09301256860328</v>
+        <v>50.35147819414922</v>
       </c>
       <c r="M162">
-        <v>52.82412233698662</v>
+        <v>49.88644942831822</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -6415,37 +6415,37 @@
         <v>175</v>
       </c>
       <c r="B163">
-        <v>0.9999804496765136</v>
+        <v>1.000179886817932</v>
       </c>
       <c r="C163">
-        <v>1.000971555709839</v>
+        <v>1.000298142433167</v>
       </c>
       <c r="D163">
-        <v>0.9998173713684082</v>
+        <v>0.9997539520263672</v>
       </c>
       <c r="E163">
-        <v>1.000156283378601</v>
+        <v>1.000049233436584</v>
       </c>
       <c r="F163">
-        <v>196012544</v>
+        <v>397795328</v>
       </c>
       <c r="G163">
-        <v>1.000069077542706</v>
+        <v>1.000130343943455</v>
       </c>
       <c r="H163">
-        <v>1.000086316466331</v>
+        <v>1.00013787150383</v>
       </c>
       <c r="I163">
-        <v>1.000093386570613</v>
+        <v>1.00016731818517</v>
       </c>
       <c r="J163">
-        <v>1.00011450729905</v>
+        <v>1.000119408929144</v>
       </c>
       <c r="L163">
-        <v>55.19035333351415</v>
+        <v>45.05477669972178</v>
       </c>
       <c r="M163">
-        <v>52.34139576437206</v>
+        <v>46.61506522327781</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -6453,37 +6453,37 @@
         <v>176</v>
       </c>
       <c r="B164">
-        <v>1.00040078163147</v>
+        <v>0.9999803900718688</v>
       </c>
       <c r="C164">
-        <v>1.001184582710266</v>
+        <v>1.000385284423828</v>
       </c>
       <c r="D164">
-        <v>0.99989116191864</v>
+        <v>0.9998855590820312</v>
       </c>
       <c r="E164">
-        <v>1.000249981880188</v>
+        <v>1.000068426132202</v>
       </c>
       <c r="F164">
-        <v>37820928</v>
+        <v>27220480</v>
       </c>
       <c r="G164">
-        <v>1.000085523391568</v>
+        <v>1.000124715051523</v>
       </c>
       <c r="H164">
-        <v>1.000095352530479</v>
+        <v>1.000132435560226</v>
       </c>
       <c r="I164">
-        <v>1.000094693899155</v>
+        <v>1.00015747944514</v>
       </c>
       <c r="J164">
-        <v>1.000116301664363</v>
+        <v>1.00011873366031</v>
       </c>
       <c r="L164">
-        <v>59.40659105895565</v>
+        <v>46.40551124971142</v>
       </c>
       <c r="M164">
-        <v>54.88847850612645</v>
+        <v>47.40605966323459</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -6491,37 +6491,37 @@
         <v>177</v>
       </c>
       <c r="B165">
-        <v>1.000171422958374</v>
+        <v>1.000064611434936</v>
       </c>
       <c r="C165">
-        <v>1.000744104385376</v>
+        <v>1.00032114982605</v>
       </c>
       <c r="D165">
-        <v>0.9999144077301024</v>
+        <v>0.9998872876167296</v>
       </c>
       <c r="E165">
-        <v>1.000045657157898</v>
+        <v>1.000137448310852</v>
       </c>
       <c r="F165">
-        <v>183907328</v>
+        <v>355506176</v>
       </c>
       <c r="G165">
-        <v>1.000081899188507</v>
+        <v>1.000125872620553</v>
       </c>
       <c r="H165">
-        <v>1.000036314129829</v>
+        <v>1.000126570463181</v>
       </c>
       <c r="I165">
-        <v>1.000092250108719</v>
+        <v>1.000154610474904</v>
       </c>
       <c r="J165">
-        <v>1.000115365975536</v>
+        <v>1.000118981536476</v>
       </c>
       <c r="L165">
-        <v>48.26542809077679</v>
+        <v>51.25377527429303</v>
       </c>
       <c r="M165">
-        <v>48.76769625798058</v>
+        <v>50.26032925965045</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -6529,37 +6529,37 @@
         <v>178</v>
       </c>
       <c r="B166">
-        <v>1.000154733657837</v>
+        <v>1.000068068504333</v>
       </c>
       <c r="C166">
-        <v>1.000777363777161</v>
+        <v>1.000371217727661</v>
       </c>
       <c r="D166">
-        <v>0.9998565316200256</v>
+        <v>0.9997797012329102</v>
       </c>
       <c r="E166">
-        <v>1.000244140625</v>
+        <v>1.000234246253967</v>
       </c>
       <c r="F166">
-        <v>117501440</v>
+        <v>172565504</v>
       </c>
       <c r="G166">
-        <v>1.000096648410006</v>
+        <v>1.000135724769045</v>
       </c>
       <c r="H166">
-        <v>1.000046572089195</v>
+        <v>1.000133395195007</v>
       </c>
       <c r="I166">
-        <v>1.000102158387502</v>
+        <v>1.000156271457672</v>
       </c>
       <c r="J166">
-        <v>1.000117071600032</v>
+        <v>1.000120508221476</v>
       </c>
       <c r="L166">
-        <v>57.06502960119243</v>
+        <v>57.34207278873017</v>
       </c>
       <c r="M166">
-        <v>54.11996135268048</v>
+        <v>54.02833587021625</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -6567,37 +6567,37 @@
         <v>179</v>
       </c>
       <c r="B167">
-        <v>1.000111937522888</v>
+        <v>1.000128030776978</v>
       </c>
       <c r="C167">
-        <v>1.000821590423584</v>
+        <v>1.000502943992615</v>
       </c>
       <c r="D167">
-        <v>0.9998431205749512</v>
+        <v>0.9999597072601318</v>
       </c>
       <c r="E167">
-        <v>1.000141263008118</v>
+        <v>1.00018298625946</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>136440832</v>
       </c>
       <c r="G167">
-        <v>1.000100704282562</v>
+        <v>1.000140021268174</v>
       </c>
       <c r="H167">
-        <v>1.000055176019669</v>
+        <v>1.000136762857437</v>
       </c>
       <c r="I167">
-        <v>1.000100306669871</v>
+        <v>1.000149015585581</v>
       </c>
       <c r="J167">
-        <v>1.000117392016034</v>
+        <v>1.000121335745158</v>
       </c>
       <c r="L167">
-        <v>51.9159238335254</v>
+        <v>53.3708525803917</v>
       </c>
       <c r="M167">
-        <v>51.13789164940774</v>
+        <v>51.79085692857376</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -6605,37 +6605,37 @@
         <v>180</v>
       </c>
       <c r="B168">
-        <v>1.000169396400452</v>
+        <v>1.000158905982971</v>
       </c>
       <c r="C168">
-        <v>1.000513315200806</v>
+        <v>1.000649333000183</v>
       </c>
       <c r="D168">
-        <v>0.9998612999916076</v>
+        <v>0.9999300241470336</v>
       </c>
       <c r="E168">
-        <v>1.000048279762268</v>
+        <v>1.000080943107605</v>
       </c>
       <c r="F168">
-        <v>73934336</v>
+        <v>304308224</v>
       </c>
       <c r="G168">
-        <v>1.000095938417081</v>
+        <v>1.000134650526304</v>
       </c>
       <c r="H168">
-        <v>1.000057446956635</v>
+        <v>1.000138461589813</v>
       </c>
       <c r="I168">
-        <v>1.00009727080663</v>
+        <v>1.000143178304036</v>
       </c>
       <c r="J168">
-        <v>1.000116476621944</v>
+        <v>1.000120800743337</v>
       </c>
       <c r="L168">
-        <v>47.55301486357266</v>
+        <v>46.20457832391036</v>
       </c>
       <c r="M168">
-        <v>48.53484216225221</v>
+        <v>47.56767953675928</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -6643,37 +6643,37 @@
         <v>181</v>
       </c>
       <c r="B169">
-        <v>1.000112295150757</v>
+        <v>1.000124931335449</v>
       </c>
       <c r="C169">
-        <v>1.000536680221558</v>
+        <v>1.000662565231323</v>
       </c>
       <c r="D169">
-        <v>0.9998812675476074</v>
+        <v>0.9999464750289916</v>
       </c>
       <c r="E169">
-        <v>1.000239491462708</v>
+        <v>1.00024425983429</v>
       </c>
       <c r="F169">
-        <v>13994496</v>
+        <v>554758656</v>
       </c>
       <c r="G169">
-        <v>1.000108988693956</v>
+        <v>1.000144615008848</v>
       </c>
       <c r="H169">
-        <v>1.000067901611328</v>
+        <v>1.000136774778366</v>
       </c>
       <c r="I169">
-        <v>1.000099297364553</v>
+        <v>1.000147465864817</v>
       </c>
       <c r="J169">
-        <v>1.000118105957583</v>
+        <v>1.000122435963084</v>
       </c>
       <c r="L169">
-        <v>56.08994668873709</v>
+        <v>56.67816542608619</v>
       </c>
       <c r="M169">
-        <v>53.7486871536255</v>
+        <v>54.02874410933597</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -6681,37 +6681,37 @@
         <v>182</v>
       </c>
       <c r="B170">
-        <v>1.000162959098816</v>
+        <v>1.00013256072998</v>
       </c>
       <c r="C170">
-        <v>1.000631809234619</v>
+        <v>1.000558137893677</v>
       </c>
       <c r="D170">
-        <v>0.9998915791511536</v>
+        <v>0.9998630881309508</v>
       </c>
       <c r="E170">
-        <v>1.000150322914124</v>
+        <v>1.0001460313797</v>
       </c>
       <c r="F170">
-        <v>2587136</v>
+        <v>412119040</v>
       </c>
       <c r="G170">
-        <v>1.000112746350335</v>
+        <v>1.000144743769835</v>
       </c>
       <c r="H170">
-        <v>1.000071638822555</v>
+        <v>1.000138640403748</v>
       </c>
       <c r="I170">
-        <v>1.000099325180054</v>
+        <v>1.000145347913106</v>
       </c>
       <c r="J170">
-        <v>1.000118532672239</v>
+        <v>1.000122748485159</v>
       </c>
       <c r="L170">
-        <v>51.67700323852231</v>
+        <v>50.08066553924699</v>
       </c>
       <c r="M170">
-        <v>51.14647653758157</v>
+        <v>50.03508515995183</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -6719,37 +6719,37 @@
         <v>183</v>
       </c>
       <c r="B171">
-        <v>1.000085234642029</v>
+        <v>1.000061869621277</v>
       </c>
       <c r="C171">
-        <v>1.000667691230774</v>
+        <v>1.000759959220886</v>
       </c>
       <c r="D171">
-        <v>0.9998911023139954</v>
+        <v>0.9998255372047424</v>
       </c>
       <c r="E171">
-        <v>1.000160455703735</v>
+        <v>1.000033140182495</v>
       </c>
       <c r="F171">
-        <v>10329600</v>
+        <v>423136768</v>
       </c>
       <c r="G171">
-        <v>1.00011708356428</v>
+        <v>1.000134597989167</v>
       </c>
       <c r="H171">
-        <v>1.000073748826981</v>
+        <v>1.000131762027741</v>
       </c>
       <c r="I171">
-        <v>1.000101606051127</v>
+        <v>1.000140412648519</v>
       </c>
       <c r="J171">
-        <v>1.00011908794418</v>
+        <v>1.000121561620223</v>
       </c>
       <c r="L171">
-        <v>52.15819780678235</v>
+        <v>43.52944753055476</v>
       </c>
       <c r="M171">
-        <v>51.43422098649786</v>
+        <v>45.84126196634162</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -6757,37 +6757,37 @@
         <v>184</v>
       </c>
       <c r="B172">
-        <v>1.000271081924438</v>
+        <v>1.000170111656189</v>
       </c>
       <c r="C172">
-        <v>1.000437617301941</v>
+        <v>1.000712990760803</v>
       </c>
       <c r="D172">
-        <v>0.9998747706413268</v>
+        <v>0.9997940063476562</v>
       </c>
       <c r="E172">
-        <v>1.000143885612488</v>
+        <v>1.000333428382874</v>
       </c>
       <c r="F172">
-        <v>16270336</v>
+        <v>180011520</v>
       </c>
       <c r="G172">
-        <v>1.000119520114117</v>
+        <v>1.000152673479504</v>
       </c>
       <c r="H172">
-        <v>1.000083261728287</v>
+        <v>1.000138634443283</v>
       </c>
       <c r="I172">
-        <v>1.000102384885152</v>
+        <v>1.000147199630737</v>
       </c>
       <c r="J172">
-        <v>1.000119416390118</v>
+        <v>1.00012436780251</v>
       </c>
       <c r="L172">
-        <v>51.21987182610791</v>
+        <v>59.41620660798691</v>
       </c>
       <c r="M172">
-        <v>50.9061866242338</v>
+        <v>56.3272408019346</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -6795,37 +6795,37 @@
         <v>185</v>
       </c>
       <c r="B173">
-        <v>0.9998849630355836</v>
+        <v>1.000123262405396</v>
       </c>
       <c r="C173">
-        <v>1.000775933265686</v>
+        <v>1.000736355781555</v>
       </c>
       <c r="D173">
-        <v>0.9998849630355836</v>
+        <v>0.9998708963394164</v>
       </c>
       <c r="E173">
-        <v>1.000047564506531</v>
+        <v>1.000388383865356</v>
       </c>
       <c r="F173">
-        <v>25092096</v>
+        <v>46472704</v>
       </c>
       <c r="G173">
-        <v>1.000112978695246</v>
+        <v>1.0001741016964</v>
       </c>
       <c r="H173">
-        <v>1.000087863206863</v>
+        <v>1.000153195858002</v>
       </c>
       <c r="I173">
-        <v>1.000106579065323</v>
+        <v>1.000153557459513</v>
       </c>
       <c r="J173">
-        <v>1.000118464709541</v>
+        <v>1.000127864704004</v>
       </c>
       <c r="L173">
-        <v>45.82831555667326</v>
+        <v>61.63817469228976</v>
       </c>
       <c r="M173">
-        <v>47.83213584784684</v>
+        <v>57.93249792860041</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -6833,37 +6833,37 @@
         <v>186</v>
       </c>
       <c r="B174">
-        <v>1.000189542770386</v>
+        <v>1.000225067138672</v>
       </c>
       <c r="C174">
-        <v>1.000773906707764</v>
+        <v>1.000459790229797</v>
       </c>
       <c r="D174">
-        <v>0.9999231100082396</v>
+        <v>0.9998848438262939</v>
       </c>
       <c r="E174">
-        <v>1.000209808349609</v>
+        <v>1.000167727470398</v>
       </c>
       <c r="F174">
-        <v>26033664</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>1.000121781391097</v>
+        <v>1.000173522221309</v>
       </c>
       <c r="H174">
-        <v>1.000098490715027</v>
+        <v>1.000156497955322</v>
       </c>
       <c r="I174">
-        <v>1.000111263990402</v>
+        <v>1.000153243541718</v>
       </c>
       <c r="J174">
-        <v>1.000119674559078</v>
+        <v>1.000128392687665</v>
       </c>
       <c r="L174">
-        <v>54.83693687197346</v>
+        <v>49.41685067481124</v>
       </c>
       <c r="M174">
-        <v>52.98243069675659</v>
+        <v>49.98762973422102</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -6871,37 +6871,37 @@
         <v>187</v>
       </c>
       <c r="B175">
-        <v>1.00048041343689</v>
+        <v>0.9999982714653016</v>
       </c>
       <c r="C175">
-        <v>1.000678062438965</v>
+        <v>1.000920057296753</v>
       </c>
       <c r="D175">
-        <v>0.99994695186615</v>
+        <v>0.9999087452888488</v>
       </c>
       <c r="E175">
-        <v>1.00036358833313</v>
+        <v>1.000251412391663</v>
       </c>
       <c r="F175">
-        <v>219722240</v>
+        <v>1055744</v>
       </c>
       <c r="G175">
-        <v>1.000143763840373</v>
+        <v>1.000180603145886</v>
       </c>
       <c r="H175">
-        <v>1.000117859244347</v>
+        <v>1.000156807899475</v>
       </c>
       <c r="I175">
-        <v>1.000082502762477</v>
+        <v>1.000153132279714</v>
       </c>
       <c r="J175">
-        <v>1.000122905205092</v>
+        <v>1.000130022087719</v>
       </c>
       <c r="L175">
-        <v>61.63925756675442</v>
+        <v>53.3622360040986</v>
       </c>
       <c r="M175">
-        <v>57.28678098882764</v>
+        <v>52.64033176586184</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -6909,37 +6909,37 @@
         <v>188</v>
       </c>
       <c r="B176">
-        <v>1.000192165374756</v>
+        <v>1.000266194343567</v>
       </c>
       <c r="C176">
-        <v>1.000834941864014</v>
+        <v>1.000537872314453</v>
       </c>
       <c r="D176">
-        <v>0.9999189376831056</v>
+        <v>0.999954879283905</v>
       </c>
       <c r="E176">
-        <v>1.000223517417907</v>
+        <v>1.000217199325562</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>35892736</v>
       </c>
       <c r="G176">
-        <v>1.000151014165603</v>
+        <v>1.000183930071311</v>
       </c>
       <c r="H176">
-        <v>1.000131699442864</v>
+        <v>1.000156801939011</v>
       </c>
       <c r="I176">
-        <v>1.000088653961817</v>
+        <v>1.000157113869985</v>
       </c>
       <c r="J176">
-        <v>1.000124237817183</v>
+        <v>1.00013117675312</v>
       </c>
       <c r="L176">
-        <v>53.39790308487997</v>
+        <v>51.51421068493759</v>
       </c>
       <c r="M176">
-        <v>52.56628573694324</v>
+        <v>51.4390809362747</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -6947,37 +6947,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>1.00013267993927</v>
+        <v>1.00019633769989</v>
       </c>
       <c r="C177">
-        <v>1.000699520111084</v>
+        <v>1.000553846359253</v>
       </c>
       <c r="D177">
-        <v>0.9999022483825684</v>
+        <v>0.9999837875366212</v>
       </c>
       <c r="E177">
-        <v>1.000184416770935</v>
+        <v>1.000323534011841</v>
       </c>
       <c r="F177">
-        <v>62696448</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>1.000154050766088</v>
+        <v>1.000196621338632</v>
       </c>
       <c r="H177">
-        <v>1.000133123993874</v>
+        <v>1.00016850233078</v>
       </c>
       <c r="I177">
-        <v>1.000095828374227</v>
+        <v>1.000164043903351</v>
       </c>
       <c r="J177">
-        <v>1.000125034889418</v>
+        <v>1.000133724531382</v>
       </c>
       <c r="L177">
-        <v>51.24615711187987</v>
+        <v>56.7512188437592</v>
       </c>
       <c r="M177">
-        <v>51.29561209103577</v>
+        <v>54.88498977468755</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -6985,37 +6985,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>1.000133872032166</v>
+        <v>1.000331163406372</v>
       </c>
       <c r="C178">
-        <v>1.000717878341675</v>
+        <v>1.000649094581604</v>
       </c>
       <c r="D178">
-        <v>0.9999610781669616</v>
+        <v>0.9999840259552002</v>
       </c>
       <c r="E178">
-        <v>1.00040066242218</v>
+        <v>1.000140905380249</v>
       </c>
       <c r="F178">
-        <v>107228672</v>
+        <v>1277440</v>
       </c>
       <c r="G178">
-        <v>1.000176470007551</v>
+        <v>1.000191556251506</v>
       </c>
       <c r="H178">
-        <v>1.000157108902931</v>
+        <v>1.000162392854691</v>
       </c>
       <c r="I178">
-        <v>1.000109088420868</v>
+        <v>1.000167175134023</v>
       </c>
       <c r="J178">
-        <v>1.000128685585216</v>
+        <v>1.000133819641963</v>
       </c>
       <c r="L178">
-        <v>61.01926658546167</v>
+        <v>46.95241341137564</v>
       </c>
       <c r="M178">
-        <v>57.4251530198835</v>
+        <v>48.51716769284614</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7023,37 +7023,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>1.000192880630493</v>
+        <v>1.000209093093872</v>
       </c>
       <c r="C179">
-        <v>1.001041889190674</v>
+        <v>1.000726699829102</v>
       </c>
       <c r="D179">
-        <v>0.9998955726623536</v>
+        <v>0.999968409538269</v>
       </c>
       <c r="E179">
-        <v>1.000256061553955</v>
+        <v>1.000216960906982</v>
       </c>
       <c r="F179">
-        <v>316362752</v>
+        <v>79270400</v>
       </c>
       <c r="G179">
-        <v>1.000183705602678</v>
+        <v>1.00019386576564</v>
       </c>
       <c r="H179">
-        <v>1.000169911980629</v>
+        <v>1.000172990560532</v>
       </c>
       <c r="I179">
-        <v>1.000116610527038</v>
+        <v>1.000165140628815</v>
       </c>
       <c r="J179">
-        <v>1.00013037268414</v>
+        <v>1.000134920850771</v>
       </c>
       <c r="L179">
-        <v>53.02336825925809</v>
+        <v>50.92245627298965</v>
       </c>
       <c r="M179">
-        <v>52.65323352557619</v>
+        <v>51.06350977726561</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7061,37 +7061,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>1.000410914421082</v>
+        <v>1.000195384025574</v>
       </c>
       <c r="C180">
-        <v>1.000931620597839</v>
+        <v>1.000527739524841</v>
       </c>
       <c r="D180">
-        <v>0.999930500984192</v>
+        <v>0.9999200701713562</v>
       </c>
       <c r="E180">
-        <v>1.000115633010864</v>
+        <v>1.000027179718018</v>
       </c>
       <c r="F180">
-        <v>136291840</v>
+        <v>60416000</v>
       </c>
       <c r="G180">
-        <v>1.000177517185241</v>
+        <v>1.000178712488584</v>
       </c>
       <c r="H180">
-        <v>1.000176572799683</v>
+        <v>1.000173550844192</v>
       </c>
       <c r="I180">
-        <v>1.000117945671082</v>
+        <v>1.000162422657013</v>
       </c>
       <c r="J180">
-        <v>1.000130177456679</v>
+        <v>1.0001334938159</v>
       </c>
       <c r="L180">
-        <v>46.38294701207089</v>
+        <v>42.08155986131895</v>
       </c>
       <c r="M180">
-        <v>48.44313409561972</v>
+        <v>45.0728287102579</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7099,37 +7099,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>1.00025999546051</v>
+        <v>1.00010359287262</v>
       </c>
       <c r="C181">
-        <v>1.000758647918701</v>
+        <v>1.000566363334656</v>
       </c>
       <c r="D181">
-        <v>0.9998868107795716</v>
+        <v>0.9998918175697328</v>
       </c>
       <c r="E181">
-        <v>1.00020956993103</v>
+        <v>1.0001380443573</v>
       </c>
       <c r="F181">
-        <v>287420416</v>
+        <v>134578688</v>
       </c>
       <c r="G181">
-        <v>1.000180431071221</v>
+        <v>1.00017501538574</v>
       </c>
       <c r="H181">
-        <v>1.000188159942627</v>
+        <v>1.000176042318344</v>
       </c>
       <c r="I181">
-        <v>1.000120989481608</v>
+        <v>1.000161333878835</v>
       </c>
       <c r="J181">
-        <v>1.000131229012631</v>
+        <v>1.000133554087972</v>
       </c>
       <c r="L181">
-        <v>51.00090353056884</v>
+        <v>48.01317126407726</v>
       </c>
       <c r="M181">
-        <v>51.25113610844899</v>
+        <v>48.84813003510884</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7137,37 +7137,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>1.000068426132202</v>
+        <v>1.000309705734253</v>
       </c>
       <c r="C182">
-        <v>1.00029981136322</v>
+        <v>1.000405430793762</v>
       </c>
       <c r="D182">
-        <v>0.9999169111251832</v>
+        <v>1.000123500823975</v>
       </c>
       <c r="E182">
-        <v>0.9999375939369202</v>
+        <v>1.00036609172821</v>
       </c>
       <c r="F182">
-        <v>124937728</v>
+        <v>54233088</v>
       </c>
       <c r="G182">
-        <v>1.000158354968103</v>
+        <v>1.000192385962328</v>
       </c>
       <c r="H182">
-        <v>1.000176408886909</v>
+        <v>1.00018737912178</v>
       </c>
       <c r="I182">
-        <v>1.000120455026626</v>
+        <v>1.000167004267375</v>
       </c>
       <c r="J182">
-        <v>1.000128664309641</v>
+        <v>1.000136634056717</v>
       </c>
       <c r="L182">
-        <v>39.82767599132718</v>
+        <v>57.97331328411148</v>
       </c>
       <c r="M182">
-        <v>43.81111524711455</v>
+        <v>55.60729033264257</v>
       </c>
     </row>
   </sheetData>
